--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>1.588492313090882</v>
       </c>
       <c r="C2">
-        <v>1.684463891269672</v>
+        <v>1.684463891269161</v>
       </c>
       <c r="D2">
-        <v>0.2473637650624596</v>
+        <v>0.2473637650631701</v>
       </c>
       <c r="E2">
-        <v>0.1263219643657116</v>
+        <v>0.1263219643657045</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.590042467611113</v>
+        <v>9.590042467611084</v>
       </c>
       <c r="I2">
-        <v>0.02116345155785027</v>
+        <v>0.02116345155778632</v>
       </c>
       <c r="J2">
-        <v>0.722180625490715</v>
+        <v>0.7221806254907293</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8767886200383828</v>
+        <v>0.876788620038333</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.341329160625833</v>
+        <v>1.341329160625747</v>
       </c>
       <c r="C3">
         <v>1.446314555074821</v>
       </c>
       <c r="D3">
-        <v>0.2137712678396895</v>
+        <v>0.2137712678400447</v>
       </c>
       <c r="E3">
-        <v>0.1102624902040006</v>
+        <v>0.1102624902040255</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.379367647196688</v>
+        <v>8.379367647196801</v>
       </c>
       <c r="I3">
-        <v>0.01869962705663042</v>
+        <v>0.01869962705665174</v>
       </c>
       <c r="J3">
-        <v>0.6149129619905409</v>
+        <v>0.6149129619905267</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7512450647854294</v>
+        <v>0.7512450647854436</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.197084687116558</v>
+        <v>1.197084687116757</v>
       </c>
       <c r="C4">
-        <v>1.304761574185534</v>
+        <v>1.304761574186102</v>
       </c>
       <c r="D4">
-        <v>0.1938390173943105</v>
+        <v>0.1938390173947795</v>
       </c>
       <c r="E4">
-        <v>0.1007176563866388</v>
+        <v>0.1007176563867098</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.655471928097796</v>
+        <v>7.655471928097853</v>
       </c>
       <c r="I4">
-        <v>0.01723222109649569</v>
+        <v>0.01723222109657918</v>
       </c>
       <c r="J4">
-        <v>0.5517656156781712</v>
+        <v>0.5517656156781996</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.677139213006356</v>
+        <v>0.6771392130063205</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.139896744129459</v>
+        <v>1.139896744129032</v>
       </c>
       <c r="C5">
-        <v>1.248059624691621</v>
+        <v>1.248059624692075</v>
       </c>
       <c r="D5">
-        <v>0.1858637331984028</v>
+        <v>0.1858637331989144</v>
       </c>
       <c r="E5">
-        <v>0.09689522036538634</v>
+        <v>0.09689522036546094</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.364500680538413</v>
+        <v>7.364500680538356</v>
       </c>
       <c r="I5">
-        <v>0.01664388304752151</v>
+        <v>0.01664388304749487</v>
       </c>
       <c r="J5">
-        <v>0.52660690672095</v>
+        <v>0.5266069067209642</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6475722388715468</v>
+        <v>0.6475722388715184</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.130489069502715</v>
+        <v>1.130489069502403</v>
       </c>
       <c r="C6">
-        <v>1.238698494329412</v>
+        <v>1.238698494329071</v>
       </c>
       <c r="D6">
-        <v>0.1845476144588503</v>
+        <v>0.1845476144584808</v>
       </c>
       <c r="E6">
-        <v>0.096264237639204</v>
+        <v>0.09626423763923952</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.316404764769345</v>
+        <v>7.316404764769231</v>
       </c>
       <c r="I6">
-        <v>0.01654672491524245</v>
+        <v>0.01654672491530462</v>
       </c>
       <c r="J6">
-        <v>0.5224611328839401</v>
+        <v>0.5224611328839188</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6426977082894894</v>
+        <v>0.6426977082895036</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.196307341963148</v>
+        <v>1.196307341963092</v>
       </c>
       <c r="C7">
-        <v>1.303993130747074</v>
+        <v>1.303993130746505</v>
       </c>
       <c r="D7">
-        <v>0.1937308968078781</v>
+        <v>0.1937308968077502</v>
       </c>
       <c r="E7">
-        <v>0.1006658487099159</v>
+        <v>0.1006658487098484</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.651532569973369</v>
+        <v>7.651532569973568</v>
       </c>
       <c r="I7">
-        <v>0.01722424969594627</v>
+        <v>0.01722424969597292</v>
       </c>
       <c r="J7">
-        <v>0.5514241230653099</v>
+        <v>0.551424123065317</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6767380472860509</v>
+        <v>0.6767380472860083</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.50151753800813</v>
+        <v>1.501517538008471</v>
       </c>
       <c r="C8">
-        <v>1.601255313314596</v>
+        <v>1.601255313315619</v>
       </c>
       <c r="D8">
-        <v>0.2356194835500389</v>
+        <v>0.2356194835502379</v>
       </c>
       <c r="E8">
-        <v>0.1207111980584514</v>
+        <v>0.1207111980585012</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.167997534472448</v>
+        <v>9.167997534472562</v>
       </c>
       <c r="I8">
-        <v>0.02030335726614574</v>
+        <v>0.02030335726612265</v>
       </c>
       <c r="J8">
-        <v>0.6845605930477987</v>
+        <v>0.6845605930478555</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8328068940400826</v>
+        <v>0.8328068940400968</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.175946461769001</v>
+        <v>2.175946461769115</v>
       </c>
       <c r="C9">
-        <v>2.231746845347288</v>
+        <v>2.231746845346095</v>
       </c>
       <c r="D9">
-        <v>0.3247425204930181</v>
+        <v>0.3247425204916681</v>
       </c>
       <c r="E9">
-        <v>0.1631881014162175</v>
+        <v>0.1631881014162886</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.34337785884557</v>
+        <v>12.34337785884549</v>
       </c>
       <c r="I9">
-        <v>0.02679728839501827</v>
+        <v>0.02679728839499873</v>
       </c>
       <c r="J9">
-        <v>0.9731237373736406</v>
+        <v>0.9731237373736974</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.168886890921826</v>
+        <v>1.168886890921868</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.74659521063893</v>
+        <v>2.746595210639157</v>
       </c>
       <c r="C10">
-        <v>2.742385607753761</v>
+        <v>2.742385607753647</v>
       </c>
       <c r="D10">
-        <v>0.397058468147236</v>
+        <v>0.3970584681475486</v>
       </c>
       <c r="E10">
         <v>0.1974825786125081</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.88129609022289</v>
+        <v>14.88129609022295</v>
       </c>
       <c r="I10">
-        <v>0.03201227222858627</v>
+        <v>0.03201227222859693</v>
       </c>
       <c r="J10">
-        <v>1.212374480569579</v>
+        <v>1.212374480569466</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.445376207043211</v>
+        <v>1.445376207043196</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031492791813605</v>
+        <v>3.031492791813434</v>
       </c>
       <c r="C11">
-        <v>2.990640537972638</v>
+        <v>2.990640537972695</v>
       </c>
       <c r="D11">
-        <v>0.4322308196934728</v>
+        <v>0.432230819693757</v>
       </c>
       <c r="E11">
-        <v>0.2141056858725889</v>
+        <v>0.2141056858726031</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.10526370915471</v>
+        <v>16.10526370915403</v>
       </c>
       <c r="I11">
-        <v>0.03453130147578953</v>
+        <v>0.0345313014758144</v>
       </c>
       <c r="J11">
-        <v>1.33037928503488</v>
+        <v>1.330379285034951</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.581051966037876</v>
+        <v>1.581051966037833</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.144051076341896</v>
+        <v>3.144051076342066</v>
       </c>
       <c r="C12">
-        <v>3.087589418807283</v>
+        <v>3.087589418806658</v>
       </c>
       <c r="D12">
-        <v>0.4459666426164119</v>
+        <v>0.4459666426162414</v>
       </c>
       <c r="E12">
-        <v>0.2205872388170107</v>
+        <v>0.2205872388168757</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.58154912414426</v>
+        <v>16.58154912414386</v>
       </c>
       <c r="I12">
-        <v>0.0355119487548734</v>
+        <v>0.03551194875485919</v>
       </c>
       <c r="J12">
         <v>1.376756470674721</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.634250127304085</v>
+        <v>1.634250127304</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.119581838710928</v>
+        <v>3.119581838710758</v>
       </c>
       <c r="C13">
-        <v>3.066566622610765</v>
+        <v>3.066566622610878</v>
       </c>
       <c r="D13">
-        <v>0.442988135577508</v>
+        <v>0.4429881355771954</v>
       </c>
       <c r="E13">
-        <v>0.219182256755893</v>
+        <v>0.2191822567559853</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.47834993519234</v>
+        <v>16.47834993519211</v>
       </c>
       <c r="I13">
-        <v>0.03529945172530446</v>
+        <v>0.0352994517253542</v>
       </c>
       <c r="J13">
-        <v>1.366685920145471</v>
+        <v>1.366685920145542</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.622704351651109</v>
+        <v>1.622704351651151</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.040652300270096</v>
+        <v>3.040652300269244</v>
       </c>
       <c r="C14">
-        <v>2.998553277024712</v>
+        <v>2.998553277024541</v>
       </c>
       <c r="D14">
-        <v>0.4333519130341585</v>
+        <v>0.4333519130348975</v>
       </c>
       <c r="E14">
-        <v>0.214634915729242</v>
+        <v>0.2146349157289791</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.14417258093619</v>
+        <v>16.14417258093562</v>
       </c>
       <c r="I14">
-        <v>0.03461140575281973</v>
+        <v>0.03461140575280197</v>
       </c>
       <c r="J14">
-        <v>1.334158326460297</v>
+        <v>1.33415832646017</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.585389419842343</v>
+        <v>1.585389419842272</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.99295039184932</v>
+        <v>2.992950391848694</v>
       </c>
       <c r="C15">
-        <v>2.95729840024228</v>
+        <v>2.957298400241768</v>
       </c>
       <c r="D15">
-        <v>0.4275068338677386</v>
+        <v>0.4275068338678238</v>
       </c>
       <c r="E15">
-        <v>0.2118752310387393</v>
+        <v>0.2118752310387819</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.94124262379478</v>
+        <v>15.94124262379449</v>
       </c>
       <c r="I15">
-        <v>0.0341936357381396</v>
+        <v>0.03419363573814849</v>
       </c>
       <c r="J15">
-        <v>1.314467472662457</v>
+        <v>1.314467472662542</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.562783853280933</v>
+        <v>1.562783853280976</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.728567392897048</v>
+        <v>2.728567392897276</v>
       </c>
       <c r="C16">
-        <v>2.726533782777153</v>
+        <v>2.726533782776585</v>
       </c>
       <c r="D16">
-        <v>0.3948127568978634</v>
+        <v>0.3948127568976076</v>
       </c>
       <c r="E16">
-        <v>0.1964199413737262</v>
+        <v>0.1964199413736907</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.80292725117869</v>
+        <v>14.80292725117914</v>
       </c>
       <c r="I16">
-        <v>0.03185104814346928</v>
+        <v>0.03185104814349415</v>
       </c>
       <c r="J16">
         <v>1.204876540624824</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.436740080330509</v>
+        <v>1.436740080330523</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.573504782238842</v>
+        <v>2.573504782239581</v>
       </c>
       <c r="C17">
-        <v>2.589459747117473</v>
+        <v>2.589459747117758</v>
       </c>
       <c r="D17">
-        <v>0.3753950617944213</v>
+        <v>0.375395061794066</v>
       </c>
       <c r="E17">
-        <v>0.1872254580835033</v>
+        <v>0.1872254580835744</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.12416416481054</v>
+        <v>14.12416416481045</v>
       </c>
       <c r="I17">
-        <v>0.03045508022834298</v>
+        <v>0.03045508022836607</v>
       </c>
       <c r="J17">
-        <v>1.140227487863598</v>
+        <v>1.14022748786364</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.362200471966261</v>
+        <v>1.362200471966275</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.486622375512752</v>
+        <v>2.48662237551207</v>
       </c>
       <c r="C18">
-        <v>2.512073456775624</v>
+        <v>2.512073456775681</v>
       </c>
       <c r="D18">
-        <v>0.3644341155796127</v>
+        <v>0.364434115579698</v>
       </c>
       <c r="E18">
-        <v>0.1820303543697293</v>
+        <v>0.182030354369715</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.74008958060892</v>
+        <v>13.7400895806087</v>
       </c>
       <c r="I18">
-        <v>0.0296655520823581</v>
+        <v>0.02966555208236343</v>
       </c>
       <c r="J18">
-        <v>1.103878521441956</v>
+        <v>1.103878521441985</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.320229779128653</v>
+        <v>1.320229779128695</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.457574628453699</v>
+        <v>2.457574628453756</v>
       </c>
       <c r="C19">
-        <v>2.486104901819544</v>
+        <v>2.486104901819829</v>
       </c>
       <c r="D19">
-        <v>0.3607562434577005</v>
+        <v>0.3607562434582832</v>
       </c>
       <c r="E19">
-        <v>0.1802863701987789</v>
+        <v>0.1802863701986865</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.61106252564477</v>
+        <v>13.61106252564497</v>
       </c>
       <c r="I19">
-        <v>0.02940038405336054</v>
+        <v>0.02940038405338896</v>
       </c>
       <c r="J19">
         <v>1.091705191873473</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.306163898840239</v>
+        <v>1.306163898840268</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.5897663031663</v>
+        <v>2.589766303166641</v>
       </c>
       <c r="C20">
-        <v>2.603896822162767</v>
+        <v>2.60389682216271</v>
       </c>
       <c r="D20">
-        <v>0.3774400526629478</v>
+        <v>0.3774400526629194</v>
       </c>
       <c r="E20">
-        <v>0.1881943150382952</v>
+        <v>0.1881943150382668</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.19574640175384</v>
+        <v>14.19574640175404</v>
       </c>
       <c r="I20">
-        <v>0.03060226091778517</v>
+        <v>0.03060226091773721</v>
       </c>
       <c r="J20">
-        <v>1.147020660140385</v>
+        <v>1.147020660140285</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.370039412894684</v>
+        <v>1.370039412894627</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.063699147631553</v>
+        <v>3.06369914763161</v>
       </c>
       <c r="C21">
-        <v>3.018444555853421</v>
+        <v>3.018444555852057</v>
       </c>
       <c r="D21">
-        <v>0.4361701474073811</v>
+        <v>0.4361701474081769</v>
       </c>
       <c r="E21">
-        <v>0.2159651377378538</v>
+        <v>0.215965137737868</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.24195489400626</v>
+        <v>16.2419548940062</v>
       </c>
       <c r="I21">
-        <v>0.03481272257549684</v>
+        <v>0.03481272257545776</v>
       </c>
       <c r="J21">
-        <v>1.343663030592808</v>
+        <v>1.343663030592836</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.596296546600414</v>
+        <v>1.596296546600371</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,13 +1175,13 @@
         <v>3.40142013509444</v>
       </c>
       <c r="C22">
-        <v>3.306966801855594</v>
+        <v>3.306966801856333</v>
       </c>
       <c r="D22">
-        <v>0.4770459947749259</v>
+        <v>0.477045994774528</v>
       </c>
       <c r="E22">
-        <v>0.2352311815398096</v>
+        <v>0.235231181539973</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.65580630022197</v>
+        <v>17.65580630022185</v>
       </c>
       <c r="I22">
-        <v>0.03772431984054947</v>
+        <v>0.03772431984052105</v>
       </c>
       <c r="J22">
-        <v>1.482302996549862</v>
+        <v>1.482302996549905</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.218180464170985</v>
+        <v>3.218180464170928</v>
       </c>
       <c r="C23">
-        <v>3.151100156248901</v>
+        <v>3.151100156250038</v>
       </c>
       <c r="D23">
-        <v>0.454964688708543</v>
+        <v>0.4549646887078325</v>
       </c>
       <c r="E23">
-        <v>0.2248300152728646</v>
+        <v>0.2248300152729712</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>16.89304804126016</v>
       </c>
       <c r="I23">
-        <v>0.03615339912238547</v>
+        <v>0.03615339912234816</v>
       </c>
       <c r="J23">
-        <v>1.407226759672952</v>
+        <v>1.407226759672866</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.582407487663545</v>
+        <v>2.582407487663033</v>
       </c>
       <c r="C24">
-        <v>2.597365445345019</v>
+        <v>2.597365445345702</v>
       </c>
       <c r="D24">
-        <v>0.3765148877958922</v>
+        <v>0.37651488779575</v>
       </c>
       <c r="E24">
-        <v>0.1877560144254389</v>
+        <v>0.1877560144256165</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.16336510030027</v>
+        <v>14.16336510030052</v>
       </c>
       <c r="I24">
-        <v>0.03053568033839404</v>
+        <v>0.03053568033854148</v>
       </c>
       <c r="J24">
-        <v>1.143946943615731</v>
+        <v>1.143946943615688</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.366492705250593</v>
+        <v>1.366492705250607</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.982782190509624</v>
+        <v>1.982782190510108</v>
       </c>
       <c r="C25">
-        <v>2.054430370327509</v>
+        <v>2.054430370328134</v>
       </c>
       <c r="D25">
-        <v>0.2996520353493679</v>
+        <v>0.2996520353494248</v>
       </c>
       <c r="E25">
-        <v>0.151253282218434</v>
+        <v>0.1512532822185051</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.45533802532333</v>
+        <v>11.45533802532327</v>
       </c>
       <c r="I25">
-        <v>0.02497665273929606</v>
+        <v>0.02497665273936533</v>
       </c>
       <c r="J25">
-        <v>0.8911758877554092</v>
+        <v>0.8911758877553666</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.073740263920278</v>
+        <v>1.073740263920243</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>1.588492313090882</v>
       </c>
       <c r="C2">
-        <v>1.684463891269161</v>
+        <v>1.684463891269672</v>
       </c>
       <c r="D2">
-        <v>0.2473637650631701</v>
+        <v>0.2473637650624596</v>
       </c>
       <c r="E2">
-        <v>0.1263219643657045</v>
+        <v>0.1263219643657116</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.590042467611084</v>
+        <v>9.590042467611113</v>
       </c>
       <c r="I2">
-        <v>0.02116345155778632</v>
+        <v>0.02116345155785027</v>
       </c>
       <c r="J2">
-        <v>0.7221806254907293</v>
+        <v>0.722180625490715</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.876788620038333</v>
+        <v>0.8767886200383828</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.341329160625747</v>
+        <v>1.341329160625833</v>
       </c>
       <c r="C3">
         <v>1.446314555074821</v>
       </c>
       <c r="D3">
-        <v>0.2137712678400447</v>
+        <v>0.2137712678396895</v>
       </c>
       <c r="E3">
-        <v>0.1102624902040255</v>
+        <v>0.1102624902040006</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.379367647196801</v>
+        <v>8.379367647196688</v>
       </c>
       <c r="I3">
-        <v>0.01869962705665174</v>
+        <v>0.01869962705663042</v>
       </c>
       <c r="J3">
-        <v>0.6149129619905267</v>
+        <v>0.6149129619905409</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7512450647854436</v>
+        <v>0.7512450647854294</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.197084687116757</v>
+        <v>1.197084687116558</v>
       </c>
       <c r="C4">
-        <v>1.304761574186102</v>
+        <v>1.304761574185534</v>
       </c>
       <c r="D4">
-        <v>0.1938390173947795</v>
+        <v>0.1938390173943105</v>
       </c>
       <c r="E4">
-        <v>0.1007176563867098</v>
+        <v>0.1007176563866388</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.655471928097853</v>
+        <v>7.655471928097796</v>
       </c>
       <c r="I4">
-        <v>0.01723222109657918</v>
+        <v>0.01723222109649569</v>
       </c>
       <c r="J4">
-        <v>0.5517656156781996</v>
+        <v>0.5517656156781712</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6771392130063205</v>
+        <v>0.677139213006356</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.139896744129032</v>
+        <v>1.139896744129459</v>
       </c>
       <c r="C5">
-        <v>1.248059624692075</v>
+        <v>1.248059624691621</v>
       </c>
       <c r="D5">
-        <v>0.1858637331989144</v>
+        <v>0.1858637331984028</v>
       </c>
       <c r="E5">
-        <v>0.09689522036546094</v>
+        <v>0.09689522036538634</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.364500680538356</v>
+        <v>7.364500680538413</v>
       </c>
       <c r="I5">
-        <v>0.01664388304749487</v>
+        <v>0.01664388304752151</v>
       </c>
       <c r="J5">
-        <v>0.5266069067209642</v>
+        <v>0.52660690672095</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6475722388715184</v>
+        <v>0.6475722388715468</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.130489069502403</v>
+        <v>1.130489069502715</v>
       </c>
       <c r="C6">
-        <v>1.238698494329071</v>
+        <v>1.238698494329412</v>
       </c>
       <c r="D6">
-        <v>0.1845476144584808</v>
+        <v>0.1845476144588503</v>
       </c>
       <c r="E6">
-        <v>0.09626423763923952</v>
+        <v>0.096264237639204</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.316404764769231</v>
+        <v>7.316404764769345</v>
       </c>
       <c r="I6">
-        <v>0.01654672491530462</v>
+        <v>0.01654672491524245</v>
       </c>
       <c r="J6">
-        <v>0.5224611328839188</v>
+        <v>0.5224611328839401</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6426977082895036</v>
+        <v>0.6426977082894894</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.196307341963092</v>
+        <v>1.196307341963148</v>
       </c>
       <c r="C7">
-        <v>1.303993130746505</v>
+        <v>1.303993130747074</v>
       </c>
       <c r="D7">
-        <v>0.1937308968077502</v>
+        <v>0.1937308968078781</v>
       </c>
       <c r="E7">
-        <v>0.1006658487098484</v>
+        <v>0.1006658487099159</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.651532569973568</v>
+        <v>7.651532569973369</v>
       </c>
       <c r="I7">
-        <v>0.01722424969597292</v>
+        <v>0.01722424969594627</v>
       </c>
       <c r="J7">
-        <v>0.551424123065317</v>
+        <v>0.5514241230653099</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6767380472860083</v>
+        <v>0.6767380472860509</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.501517538008471</v>
+        <v>1.50151753800813</v>
       </c>
       <c r="C8">
-        <v>1.601255313315619</v>
+        <v>1.601255313314596</v>
       </c>
       <c r="D8">
-        <v>0.2356194835502379</v>
+        <v>0.2356194835500389</v>
       </c>
       <c r="E8">
-        <v>0.1207111980585012</v>
+        <v>0.1207111980584514</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.167997534472562</v>
+        <v>9.167997534472448</v>
       </c>
       <c r="I8">
-        <v>0.02030335726612265</v>
+        <v>0.02030335726614574</v>
       </c>
       <c r="J8">
-        <v>0.6845605930478555</v>
+        <v>0.6845605930477987</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8328068940400968</v>
+        <v>0.8328068940400826</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.175946461769115</v>
+        <v>2.175946461769001</v>
       </c>
       <c r="C9">
-        <v>2.231746845346095</v>
+        <v>2.231746845347288</v>
       </c>
       <c r="D9">
-        <v>0.3247425204916681</v>
+        <v>0.3247425204930181</v>
       </c>
       <c r="E9">
-        <v>0.1631881014162886</v>
+        <v>0.1631881014162175</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.34337785884549</v>
+        <v>12.34337785884557</v>
       </c>
       <c r="I9">
-        <v>0.02679728839499873</v>
+        <v>0.02679728839501827</v>
       </c>
       <c r="J9">
-        <v>0.9731237373736974</v>
+        <v>0.9731237373736406</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.168886890921868</v>
+        <v>1.168886890921826</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.746595210639157</v>
+        <v>2.74659521063893</v>
       </c>
       <c r="C10">
-        <v>2.742385607753647</v>
+        <v>2.742385607753761</v>
       </c>
       <c r="D10">
-        <v>0.3970584681475486</v>
+        <v>0.397058468147236</v>
       </c>
       <c r="E10">
         <v>0.1974825786125081</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.88129609022295</v>
+        <v>14.88129609022289</v>
       </c>
       <c r="I10">
-        <v>0.03201227222859693</v>
+        <v>0.03201227222858627</v>
       </c>
       <c r="J10">
-        <v>1.212374480569466</v>
+        <v>1.212374480569579</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.445376207043196</v>
+        <v>1.445376207043211</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031492791813434</v>
+        <v>3.031492791813605</v>
       </c>
       <c r="C11">
-        <v>2.990640537972695</v>
+        <v>2.990640537972638</v>
       </c>
       <c r="D11">
-        <v>0.432230819693757</v>
+        <v>0.4322308196934728</v>
       </c>
       <c r="E11">
-        <v>0.2141056858726031</v>
+        <v>0.2141056858725889</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.10526370915403</v>
+        <v>16.10526370915471</v>
       </c>
       <c r="I11">
-        <v>0.0345313014758144</v>
+        <v>0.03453130147578953</v>
       </c>
       <c r="J11">
-        <v>1.330379285034951</v>
+        <v>1.33037928503488</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.581051966037833</v>
+        <v>1.581051966037876</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.144051076342066</v>
+        <v>3.144051076341896</v>
       </c>
       <c r="C12">
-        <v>3.087589418806658</v>
+        <v>3.087589418807283</v>
       </c>
       <c r="D12">
-        <v>0.4459666426162414</v>
+        <v>0.4459666426164119</v>
       </c>
       <c r="E12">
-        <v>0.2205872388168757</v>
+        <v>0.2205872388170107</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.58154912414386</v>
+        <v>16.58154912414426</v>
       </c>
       <c r="I12">
-        <v>0.03551194875485919</v>
+        <v>0.0355119487548734</v>
       </c>
       <c r="J12">
         <v>1.376756470674721</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.634250127304</v>
+        <v>1.634250127304085</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.119581838710758</v>
+        <v>3.119581838710928</v>
       </c>
       <c r="C13">
-        <v>3.066566622610878</v>
+        <v>3.066566622610765</v>
       </c>
       <c r="D13">
-        <v>0.4429881355771954</v>
+        <v>0.442988135577508</v>
       </c>
       <c r="E13">
-        <v>0.2191822567559853</v>
+        <v>0.219182256755893</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.47834993519211</v>
+        <v>16.47834993519234</v>
       </c>
       <c r="I13">
-        <v>0.0352994517253542</v>
+        <v>0.03529945172530446</v>
       </c>
       <c r="J13">
-        <v>1.366685920145542</v>
+        <v>1.366685920145471</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.622704351651151</v>
+        <v>1.622704351651109</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.040652300269244</v>
+        <v>3.040652300270096</v>
       </c>
       <c r="C14">
-        <v>2.998553277024541</v>
+        <v>2.998553277024712</v>
       </c>
       <c r="D14">
-        <v>0.4333519130348975</v>
+        <v>0.4333519130341585</v>
       </c>
       <c r="E14">
-        <v>0.2146349157289791</v>
+        <v>0.214634915729242</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.14417258093562</v>
+        <v>16.14417258093619</v>
       </c>
       <c r="I14">
-        <v>0.03461140575280197</v>
+        <v>0.03461140575281973</v>
       </c>
       <c r="J14">
-        <v>1.33415832646017</v>
+        <v>1.334158326460297</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.585389419842272</v>
+        <v>1.585389419842343</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992950391848694</v>
+        <v>2.99295039184932</v>
       </c>
       <c r="C15">
-        <v>2.957298400241768</v>
+        <v>2.95729840024228</v>
       </c>
       <c r="D15">
-        <v>0.4275068338678238</v>
+        <v>0.4275068338677386</v>
       </c>
       <c r="E15">
-        <v>0.2118752310387819</v>
+        <v>0.2118752310387393</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.94124262379449</v>
+        <v>15.94124262379478</v>
       </c>
       <c r="I15">
-        <v>0.03419363573814849</v>
+        <v>0.0341936357381396</v>
       </c>
       <c r="J15">
-        <v>1.314467472662542</v>
+        <v>1.314467472662457</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.562783853280976</v>
+        <v>1.562783853280933</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.728567392897276</v>
+        <v>2.728567392897048</v>
       </c>
       <c r="C16">
-        <v>2.726533782776585</v>
+        <v>2.726533782777153</v>
       </c>
       <c r="D16">
-        <v>0.3948127568976076</v>
+        <v>0.3948127568978634</v>
       </c>
       <c r="E16">
-        <v>0.1964199413736907</v>
+        <v>0.1964199413737262</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.80292725117914</v>
+        <v>14.80292725117869</v>
       </c>
       <c r="I16">
-        <v>0.03185104814349415</v>
+        <v>0.03185104814346928</v>
       </c>
       <c r="J16">
         <v>1.204876540624824</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.436740080330523</v>
+        <v>1.436740080330509</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.573504782239581</v>
+        <v>2.573504782238842</v>
       </c>
       <c r="C17">
-        <v>2.589459747117758</v>
+        <v>2.589459747117473</v>
       </c>
       <c r="D17">
-        <v>0.375395061794066</v>
+        <v>0.3753950617944213</v>
       </c>
       <c r="E17">
-        <v>0.1872254580835744</v>
+        <v>0.1872254580835033</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.12416416481045</v>
+        <v>14.12416416481054</v>
       </c>
       <c r="I17">
-        <v>0.03045508022836607</v>
+        <v>0.03045508022834298</v>
       </c>
       <c r="J17">
-        <v>1.14022748786364</v>
+        <v>1.140227487863598</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.362200471966275</v>
+        <v>1.362200471966261</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.48662237551207</v>
+        <v>2.486622375512752</v>
       </c>
       <c r="C18">
-        <v>2.512073456775681</v>
+        <v>2.512073456775624</v>
       </c>
       <c r="D18">
-        <v>0.364434115579698</v>
+        <v>0.3644341155796127</v>
       </c>
       <c r="E18">
-        <v>0.182030354369715</v>
+        <v>0.1820303543697293</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.7400895806087</v>
+        <v>13.74008958060892</v>
       </c>
       <c r="I18">
-        <v>0.02966555208236343</v>
+        <v>0.0296655520823581</v>
       </c>
       <c r="J18">
-        <v>1.103878521441985</v>
+        <v>1.103878521441956</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.320229779128695</v>
+        <v>1.320229779128653</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.457574628453756</v>
+        <v>2.457574628453699</v>
       </c>
       <c r="C19">
-        <v>2.486104901819829</v>
+        <v>2.486104901819544</v>
       </c>
       <c r="D19">
-        <v>0.3607562434582832</v>
+        <v>0.3607562434577005</v>
       </c>
       <c r="E19">
-        <v>0.1802863701986865</v>
+        <v>0.1802863701987789</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.61106252564497</v>
+        <v>13.61106252564477</v>
       </c>
       <c r="I19">
-        <v>0.02940038405338896</v>
+        <v>0.02940038405336054</v>
       </c>
       <c r="J19">
         <v>1.091705191873473</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.306163898840268</v>
+        <v>1.306163898840239</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.589766303166641</v>
+        <v>2.5897663031663</v>
       </c>
       <c r="C20">
-        <v>2.60389682216271</v>
+        <v>2.603896822162767</v>
       </c>
       <c r="D20">
-        <v>0.3774400526629194</v>
+        <v>0.3774400526629478</v>
       </c>
       <c r="E20">
-        <v>0.1881943150382668</v>
+        <v>0.1881943150382952</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.19574640175404</v>
+        <v>14.19574640175384</v>
       </c>
       <c r="I20">
-        <v>0.03060226091773721</v>
+        <v>0.03060226091778517</v>
       </c>
       <c r="J20">
-        <v>1.147020660140285</v>
+        <v>1.147020660140385</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.370039412894627</v>
+        <v>1.370039412894684</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.06369914763161</v>
+        <v>3.063699147631553</v>
       </c>
       <c r="C21">
-        <v>3.018444555852057</v>
+        <v>3.018444555853421</v>
       </c>
       <c r="D21">
-        <v>0.4361701474081769</v>
+        <v>0.4361701474073811</v>
       </c>
       <c r="E21">
-        <v>0.215965137737868</v>
+        <v>0.2159651377378538</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.2419548940062</v>
+        <v>16.24195489400626</v>
       </c>
       <c r="I21">
-        <v>0.03481272257545776</v>
+        <v>0.03481272257549684</v>
       </c>
       <c r="J21">
-        <v>1.343663030592836</v>
+        <v>1.343663030592808</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.596296546600371</v>
+        <v>1.596296546600414</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,13 +1175,13 @@
         <v>3.40142013509444</v>
       </c>
       <c r="C22">
-        <v>3.306966801856333</v>
+        <v>3.306966801855594</v>
       </c>
       <c r="D22">
-        <v>0.477045994774528</v>
+        <v>0.4770459947749259</v>
       </c>
       <c r="E22">
-        <v>0.235231181539973</v>
+        <v>0.2352311815398096</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.65580630022185</v>
+        <v>17.65580630022197</v>
       </c>
       <c r="I22">
-        <v>0.03772431984052105</v>
+        <v>0.03772431984054947</v>
       </c>
       <c r="J22">
-        <v>1.482302996549905</v>
+        <v>1.482302996549862</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.218180464170928</v>
+        <v>3.218180464170985</v>
       </c>
       <c r="C23">
-        <v>3.151100156250038</v>
+        <v>3.151100156248901</v>
       </c>
       <c r="D23">
-        <v>0.4549646887078325</v>
+        <v>0.454964688708543</v>
       </c>
       <c r="E23">
-        <v>0.2248300152729712</v>
+        <v>0.2248300152728646</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>16.89304804126016</v>
       </c>
       <c r="I23">
-        <v>0.03615339912234816</v>
+        <v>0.03615339912238547</v>
       </c>
       <c r="J23">
-        <v>1.407226759672866</v>
+        <v>1.407226759672952</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.582407487663033</v>
+        <v>2.582407487663545</v>
       </c>
       <c r="C24">
-        <v>2.597365445345702</v>
+        <v>2.597365445345019</v>
       </c>
       <c r="D24">
-        <v>0.37651488779575</v>
+        <v>0.3765148877958922</v>
       </c>
       <c r="E24">
-        <v>0.1877560144256165</v>
+        <v>0.1877560144254389</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.16336510030052</v>
+        <v>14.16336510030027</v>
       </c>
       <c r="I24">
-        <v>0.03053568033854148</v>
+        <v>0.03053568033839404</v>
       </c>
       <c r="J24">
-        <v>1.143946943615688</v>
+        <v>1.143946943615731</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.366492705250607</v>
+        <v>1.366492705250593</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.982782190510108</v>
+        <v>1.982782190509624</v>
       </c>
       <c r="C25">
-        <v>2.054430370328134</v>
+        <v>2.054430370327509</v>
       </c>
       <c r="D25">
-        <v>0.2996520353494248</v>
+        <v>0.2996520353493679</v>
       </c>
       <c r="E25">
-        <v>0.1512532822185051</v>
+        <v>0.151253282218434</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.45533802532327</v>
+        <v>11.45533802532333</v>
       </c>
       <c r="I25">
-        <v>0.02497665273936533</v>
+        <v>0.02497665273929606</v>
       </c>
       <c r="J25">
-        <v>0.8911758877553666</v>
+        <v>0.8911758877554092</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.073740263920243</v>
+        <v>1.073740263920278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.588492313090882</v>
+        <v>1.566239026151749</v>
       </c>
       <c r="C2">
-        <v>1.684463891269672</v>
+        <v>1.675869479264975</v>
       </c>
       <c r="D2">
-        <v>0.2473637650624596</v>
+        <v>0.2459803716055831</v>
       </c>
       <c r="E2">
-        <v>0.1263219643657116</v>
+        <v>0.1252131894608475</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007928408869376664</v>
       </c>
       <c r="H2">
-        <v>9.590042467611113</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02116345155785027</v>
+        <v>9.602571478516268</v>
       </c>
       <c r="J2">
-        <v>0.722180625490715</v>
+        <v>0.02079571245077183</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.714848923090365</v>
       </c>
       <c r="L2">
-        <v>0.8767886200383828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8713738898610401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.341329160625833</v>
+        <v>1.323993685459271</v>
       </c>
       <c r="C3">
-        <v>1.446314555074821</v>
+        <v>1.440918573823865</v>
       </c>
       <c r="D3">
-        <v>0.2137712678396895</v>
+        <v>0.2125959121263463</v>
       </c>
       <c r="E3">
-        <v>0.1102624902040006</v>
+        <v>0.1091924672641831</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008070552074611534</v>
       </c>
       <c r="H3">
-        <v>8.379367647196688</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01869962705663042</v>
+        <v>8.399015561288451</v>
       </c>
       <c r="J3">
-        <v>0.6149129619905409</v>
+        <v>0.01833120454879911</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6094469600483592</v>
       </c>
       <c r="L3">
-        <v>0.7512450647854294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.747384048691778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.197084687116558</v>
+        <v>1.182710767650633</v>
       </c>
       <c r="C4">
-        <v>1.304761574185534</v>
+        <v>1.301283569947032</v>
       </c>
       <c r="D4">
-        <v>0.1938390173943105</v>
+        <v>0.1927823353811391</v>
       </c>
       <c r="E4">
-        <v>0.1007176563866388</v>
+        <v>0.09966676670956431</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008158778225818869</v>
       </c>
       <c r="H4">
-        <v>7.655471928097796</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01723222109649569</v>
+        <v>7.679213339358029</v>
       </c>
       <c r="J4">
-        <v>0.5517656156781712</v>
+        <v>0.01686265851833824</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5474229389412244</v>
       </c>
       <c r="L4">
-        <v>0.677139213006356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6742032519602645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.139896744129459</v>
+        <v>1.126721137957162</v>
       </c>
       <c r="C5">
-        <v>1.248059624691621</v>
+        <v>1.245355560022347</v>
       </c>
       <c r="D5">
-        <v>0.1858637331984028</v>
+        <v>0.1848535678286396</v>
       </c>
       <c r="E5">
-        <v>0.09689522036538634</v>
+        <v>0.09585112355727077</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008195037851403754</v>
       </c>
       <c r="H5">
-        <v>7.364500680538413</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01664388304752151</v>
+        <v>7.389854394135028</v>
       </c>
       <c r="J5">
-        <v>0.52660690672095</v>
+        <v>0.01627369523501621</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5227186306173763</v>
       </c>
       <c r="L5">
-        <v>0.6475722388715468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6450081461823842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.130489069502715</v>
+        <v>1.117512081423513</v>
       </c>
       <c r="C6">
-        <v>1.238698494329412</v>
+        <v>1.236122579710866</v>
       </c>
       <c r="D6">
-        <v>0.1845476144588503</v>
+        <v>0.1835450729128354</v>
       </c>
       <c r="E6">
-        <v>0.096264237639204</v>
+        <v>0.09522121241514014</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008201079075975393</v>
       </c>
       <c r="H6">
-        <v>7.316404764769345</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01654672491524245</v>
+        <v>7.342023186368465</v>
       </c>
       <c r="J6">
-        <v>0.5224611328839401</v>
+        <v>0.01617642410070097</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5186481637509814</v>
       </c>
       <c r="L6">
-        <v>0.6426977082894894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6401951119546752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.196307341963148</v>
+        <v>1.181949610813803</v>
       </c>
       <c r="C7">
-        <v>1.303993130747074</v>
+        <v>1.300525590496363</v>
       </c>
       <c r="D7">
-        <v>0.1937308968078781</v>
+        <v>0.1926748490860888</v>
       </c>
       <c r="E7">
-        <v>0.1006658487099159</v>
+        <v>0.09961505451204999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008159265911392425</v>
       </c>
       <c r="H7">
-        <v>7.651532569973369</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01722424969594627</v>
+        <v>7.675295934841188</v>
       </c>
       <c r="J7">
-        <v>0.5514241230653099</v>
+        <v>0.0168546793121287</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5470875855152428</v>
       </c>
       <c r="L7">
-        <v>0.6767380472860509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6738071194573081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.50151753800813</v>
+        <v>1.480975980409085</v>
       </c>
       <c r="C8">
-        <v>1.601255313314596</v>
+        <v>1.593775825001558</v>
       </c>
       <c r="D8">
-        <v>0.2356194835500389</v>
+        <v>0.2343099932932802</v>
       </c>
       <c r="E8">
-        <v>0.1207111980584514</v>
+        <v>0.1196168647779032</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007977266757931932</v>
       </c>
       <c r="H8">
-        <v>9.167997534472448</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02030335726614574</v>
+        <v>9.18304805995686</v>
       </c>
       <c r="J8">
-        <v>0.6845605930477987</v>
+        <v>0.01993554587717128</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6778782787494251</v>
       </c>
       <c r="L8">
-        <v>0.8328068940400826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.8279353416218669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.175946461769001</v>
+        <v>2.142463676556133</v>
       </c>
       <c r="C9">
-        <v>2.231746845347288</v>
+        <v>2.215809634246625</v>
       </c>
       <c r="D9">
-        <v>0.3247425204930181</v>
+        <v>0.3228384309885541</v>
       </c>
       <c r="E9">
-        <v>0.1631881014162175</v>
+        <v>0.1619614058588468</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007624222251343803</v>
       </c>
       <c r="H9">
-        <v>12.34337785884557</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02679728839501827</v>
+        <v>12.3383209668028</v>
       </c>
       <c r="J9">
-        <v>0.9731237373736406</v>
+        <v>0.02642597448658179</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9615348834426385</v>
       </c>
       <c r="L9">
-        <v>1.168886890921826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.159852359806976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.74659521063893</v>
+        <v>2.702420505776956</v>
       </c>
       <c r="C10">
-        <v>2.742385607753761</v>
+        <v>2.719439656945326</v>
       </c>
       <c r="D10">
-        <v>0.397058468147236</v>
+        <v>0.3946078624082361</v>
       </c>
       <c r="E10">
-        <v>0.1974825786125081</v>
+        <v>0.1961102665218846</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007360771286013431</v>
       </c>
       <c r="H10">
-        <v>14.88129609022289</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03201227222858627</v>
+        <v>14.85803605387866</v>
       </c>
       <c r="J10">
-        <v>1.212374480569579</v>
+        <v>0.03163168125926497</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.196742630350883</v>
       </c>
       <c r="L10">
-        <v>1.445376207043211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.4328171114078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031492791813605</v>
+        <v>2.981955475247048</v>
       </c>
       <c r="C11">
-        <v>2.990640537972638</v>
+        <v>2.964182265106672</v>
       </c>
       <c r="D11">
-        <v>0.4322308196934728</v>
+        <v>0.4294900055595576</v>
       </c>
       <c r="E11">
-        <v>0.2141056858725889</v>
+        <v>0.2126495534856119</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007238081400098295</v>
       </c>
       <c r="H11">
-        <v>16.10526370915471</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03453130147578953</v>
+        <v>16.07241998005998</v>
       </c>
       <c r="J11">
-        <v>1.33037928503488</v>
+        <v>0.03414413838078545</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.312725130288015</v>
       </c>
       <c r="L11">
-        <v>1.581051966037876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.566700964852586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.144051076341896</v>
+        <v>3.092380304774565</v>
       </c>
       <c r="C12">
-        <v>3.087589418807283</v>
+        <v>3.059735233456763</v>
       </c>
       <c r="D12">
-        <v>0.4459666426164119</v>
+        <v>0.4431076540846846</v>
       </c>
       <c r="E12">
-        <v>0.2205872388170107</v>
+        <v>0.2190959150724439</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007190991021861599</v>
       </c>
       <c r="H12">
-        <v>16.58154912414426</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0355119487548734</v>
+        <v>16.54481727017804</v>
       </c>
       <c r="J12">
-        <v>1.376756470674721</v>
+        <v>0.03512184062323165</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.358298927557598</v>
       </c>
       <c r="L12">
-        <v>1.634250127304085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.619182228429409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.119581838710928</v>
+        <v>3.068375750069833</v>
       </c>
       <c r="C13">
-        <v>3.066566622610765</v>
+        <v>3.039016394978546</v>
       </c>
       <c r="D13">
-        <v>0.442988135577508</v>
+        <v>0.4401550134046204</v>
       </c>
       <c r="E13">
-        <v>0.219182256755893</v>
+        <v>0.2176986845927331</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007201165044542702</v>
       </c>
       <c r="H13">
-        <v>16.47834993519234</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03529945172530446</v>
+        <v>16.44246844294071</v>
       </c>
       <c r="J13">
-        <v>1.366685920145471</v>
+        <v>0.03491000060340355</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.348403302772041</v>
       </c>
       <c r="L13">
-        <v>1.622704351651109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.607792784829712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.040652300270096</v>
+        <v>2.990941746228884</v>
       </c>
       <c r="C14">
-        <v>2.998553277024712</v>
+        <v>2.971981620407746</v>
       </c>
       <c r="D14">
-        <v>0.4333519130341585</v>
+        <v>0.4306015591640175</v>
       </c>
       <c r="E14">
-        <v>0.214634915729242</v>
+        <v>0.213175963982593</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007234221378915606</v>
       </c>
       <c r="H14">
-        <v>16.14417258093619</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03461140575281973</v>
+        <v>16.11101468053556</v>
       </c>
       <c r="J14">
-        <v>1.334158326460297</v>
+        <v>0.03422401037503775</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.316438910814171</v>
       </c>
       <c r="L14">
-        <v>1.585389419842343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.570980288537257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.99295039184932</v>
+        <v>2.944141377401763</v>
       </c>
       <c r="C15">
-        <v>2.95729840024228</v>
+        <v>2.931316863589245</v>
       </c>
       <c r="D15">
-        <v>0.4275068338677386</v>
+        <v>0.424806015398957</v>
       </c>
       <c r="E15">
-        <v>0.2118752310387393</v>
+        <v>0.2104308766269654</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007254379587784397</v>
       </c>
       <c r="H15">
-        <v>15.94124262379478</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0341936357381396</v>
+        <v>15.90971664966662</v>
       </c>
       <c r="J15">
-        <v>1.314467472662457</v>
+        <v>0.03380743576251177</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.297087727639649</v>
       </c>
       <c r="L15">
-        <v>1.562783853280933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.548677073210357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.728567392897048</v>
+        <v>2.684730729325395</v>
       </c>
       <c r="C16">
-        <v>2.726533782777153</v>
+        <v>2.703809368100224</v>
       </c>
       <c r="D16">
-        <v>0.3948127568978634</v>
+        <v>0.3923801038894794</v>
       </c>
       <c r="E16">
-        <v>0.1964199413737262</v>
+        <v>0.1950526828529036</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007368714580433579</v>
       </c>
       <c r="H16">
-        <v>14.80292725117869</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03185104814346928</v>
+        <v>14.7802618142577</v>
       </c>
       <c r="J16">
-        <v>1.204876540624824</v>
+        <v>0.03147083034075138</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.189372303553668</v>
       </c>
       <c r="L16">
-        <v>1.436740080330509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.424293434182786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.573504782238842</v>
+        <v>2.532572232962252</v>
       </c>
       <c r="C17">
-        <v>2.589459747117473</v>
+        <v>2.568638946657813</v>
       </c>
       <c r="D17">
-        <v>0.3753950617944213</v>
+        <v>0.3731148986787929</v>
       </c>
       <c r="E17">
-        <v>0.1872254580835033</v>
+        <v>0.1859004458894873</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007437987753562251</v>
       </c>
       <c r="H17">
-        <v>14.12416416481054</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.03045508022834298</v>
+        <v>14.10655790942525</v>
       </c>
       <c r="J17">
-        <v>1.140227487863598</v>
+        <v>0.0300778601370979</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.125820189703646</v>
       </c>
       <c r="L17">
-        <v>1.362200471966261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.350717273943076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.486622375512752</v>
+        <v>2.4473156497898</v>
       </c>
       <c r="C18">
-        <v>2.512073456775624</v>
+        <v>2.492318556406701</v>
       </c>
       <c r="D18">
-        <v>0.3644341155796127</v>
+        <v>0.3622379238738205</v>
       </c>
       <c r="E18">
-        <v>0.1820303543697293</v>
+        <v>0.1807280584650925</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007477580327725987</v>
       </c>
       <c r="H18">
-        <v>13.74008958060892</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0296655520823581</v>
+        <v>13.72527613583327</v>
       </c>
       <c r="J18">
-        <v>1.103878521441956</v>
+        <v>0.02928984405958879</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.090085787506922</v>
       </c>
       <c r="L18">
-        <v>1.320229779128653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.309283852648662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.457574628453699</v>
+        <v>2.418811486816821</v>
       </c>
       <c r="C19">
-        <v>2.486104901819544</v>
+        <v>2.466706388289481</v>
       </c>
       <c r="D19">
-        <v>0.3607562434577005</v>
+        <v>0.3585878972842522</v>
       </c>
       <c r="E19">
-        <v>0.1802863701987789</v>
+        <v>0.178991516219277</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007490948274888609</v>
       </c>
       <c r="H19">
-        <v>13.61106252564477</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02940038405336054</v>
+        <v>13.59717632038297</v>
       </c>
       <c r="J19">
-        <v>1.091705191873473</v>
+        <v>0.02902515441000553</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.078118003733493</v>
       </c>
       <c r="L19">
-        <v>1.306163898840239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.295397258947631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.5897663031663</v>
+        <v>2.548529403173518</v>
       </c>
       <c r="C20">
-        <v>2.603896822162767</v>
+        <v>2.582876497502127</v>
       </c>
       <c r="D20">
-        <v>0.3774400526629478</v>
+        <v>0.3751440572807638</v>
       </c>
       <c r="E20">
-        <v>0.1881943150382952</v>
+        <v>0.1868649749741564</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007430640949004144</v>
       </c>
       <c r="H20">
-        <v>14.19574640175384</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03060226091778517</v>
+        <v>14.17761413851474</v>
       </c>
       <c r="J20">
-        <v>1.147020660140385</v>
+        <v>0.03022474437427292</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.132498352654778</v>
       </c>
       <c r="L20">
-        <v>1.370039412894684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.358455468607744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.063699147631553</v>
+        <v>3.013552419086523</v>
       </c>
       <c r="C21">
-        <v>3.018444555853421</v>
+        <v>2.99158744994196</v>
       </c>
       <c r="D21">
-        <v>0.4361701474073811</v>
+        <v>0.4333957303043405</v>
       </c>
       <c r="E21">
-        <v>0.2159651377378538</v>
+        <v>0.214499057352846</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007224531124862898</v>
       </c>
       <c r="H21">
-        <v>16.24195489400626</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03481272257549684</v>
+        <v>16.20800475658046</v>
       </c>
       <c r="J21">
-        <v>1.343663030592808</v>
+        <v>0.03442473696003745</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.325779321866179</v>
       </c>
       <c r="L21">
-        <v>1.596296546600414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.581740991224848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.40142013509444</v>
+        <v>3.344826251588131</v>
       </c>
       <c r="C22">
-        <v>3.306966801855594</v>
+        <v>3.275895558552065</v>
       </c>
       <c r="D22">
-        <v>0.4770459947749259</v>
+        <v>0.4739087723314981</v>
       </c>
       <c r="E22">
-        <v>0.2352311815398096</v>
+        <v>0.2336548622868904</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007085997249439093</v>
       </c>
       <c r="H22">
-        <v>17.65580630022197</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03772431984054947</v>
+        <v>17.60995068322825</v>
       </c>
       <c r="J22">
-        <v>1.482302996549862</v>
+        <v>0.03732673412898357</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.461994247149903</v>
       </c>
       <c r="L22">
-        <v>1.75506162454073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.738331349581841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.218180464170985</v>
+        <v>3.165098638731763</v>
       </c>
       <c r="C23">
-        <v>3.151100156248901</v>
+        <v>3.122323278238127</v>
       </c>
       <c r="D23">
-        <v>0.454964688708543</v>
+        <v>0.4520267286997637</v>
       </c>
       <c r="E23">
-        <v>0.2248300152728646</v>
+        <v>0.2233148621012901</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007160377165820186</v>
       </c>
       <c r="H23">
-        <v>16.89304804126016</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03615339912238547</v>
+        <v>16.85372230234526</v>
       </c>
       <c r="J23">
-        <v>1.407226759672952</v>
+        <v>0.03576124359050503</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.388238240363037</v>
       </c>
       <c r="L23">
-        <v>1.669164051407023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.653620813202878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.582407487663545</v>
+        <v>2.541308318878976</v>
       </c>
       <c r="C24">
-        <v>2.597365445345019</v>
+        <v>2.57643541305049</v>
       </c>
       <c r="D24">
-        <v>0.3765148877958922</v>
+        <v>0.3742260615384652</v>
       </c>
       <c r="E24">
-        <v>0.1877560144254389</v>
+        <v>0.186428635823269</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007433963151200282</v>
       </c>
       <c r="H24">
-        <v>14.16336510030027</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.03053568033839404</v>
+        <v>14.14547100088191</v>
       </c>
       <c r="J24">
-        <v>1.143946943615731</v>
+        <v>0.03015829847121232</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.129476681153889</v>
       </c>
       <c r="L24">
-        <v>1.366492705250593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.35495435936366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.982782190509624</v>
+        <v>1.952946030753282</v>
       </c>
       <c r="C25">
-        <v>2.054430370327509</v>
+        <v>2.040881569203009</v>
       </c>
       <c r="D25">
-        <v>0.2996520353493679</v>
+        <v>0.297923498646341</v>
       </c>
       <c r="E25">
-        <v>0.151253282218434</v>
+        <v>0.1500690854404283</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007719897896249039</v>
       </c>
       <c r="H25">
-        <v>11.45533802532333</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.02497665273929606</v>
+        <v>11.45617928453214</v>
       </c>
       <c r="J25">
-        <v>0.8911758877554092</v>
+        <v>0.02460723687251942</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8809686155523764</v>
       </c>
       <c r="L25">
-        <v>1.073740263920278</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.065891283059962</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.566239026151749</v>
+        <v>1.879961535233292</v>
       </c>
       <c r="C2">
-        <v>1.675869479264975</v>
+        <v>0.2522281007637304</v>
       </c>
       <c r="D2">
-        <v>0.2459803716055831</v>
+        <v>0.1917177475011584</v>
       </c>
       <c r="E2">
-        <v>0.1252131894608475</v>
+        <v>0.03778136476053984</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007928408869376664</v>
+        <v>0.0008283307449352317</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.602571478516268</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02079571245077183</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.714848923090365</v>
+        <v>0.4234170513308442</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1472251943475982</v>
       </c>
       <c r="M2">
-        <v>0.8713738898610401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3365499942049226</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.110830942702933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.323993685459271</v>
+        <v>1.63489244000823</v>
       </c>
       <c r="C3">
-        <v>1.440918573823865</v>
+        <v>0.2141830131762958</v>
       </c>
       <c r="D3">
-        <v>0.2125959121263463</v>
+        <v>0.1647823618842068</v>
       </c>
       <c r="E3">
-        <v>0.1091924672641831</v>
+        <v>0.0358670363741016</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008070552074611534</v>
+        <v>0.0008403883283462566</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.399015561288451</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01833120454879911</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6094469600483592</v>
+        <v>0.363093622888762</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1335073166980294</v>
       </c>
       <c r="M3">
-        <v>0.747384048691778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2956802302383323</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.068664163947233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.182710767650633</v>
+        <v>1.490569668432329</v>
       </c>
       <c r="C4">
-        <v>1.301283569947032</v>
+        <v>0.1917128267871249</v>
       </c>
       <c r="D4">
-        <v>0.1927823353811391</v>
+        <v>0.1486599809837372</v>
       </c>
       <c r="E4">
-        <v>0.09966676670956431</v>
+        <v>0.03472395499014702</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008158778225818869</v>
+        <v>0.0008479211486978055</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.679213339358029</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01686265851833824</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5474229389412244</v>
+        <v>0.3275565513208036</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1253819281824278</v>
       </c>
       <c r="M4">
-        <v>0.6742032519602645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2715845777384374</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.443220169701391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.126721137957162</v>
+        <v>1.433110734257838</v>
       </c>
       <c r="C5">
-        <v>1.245355560022347</v>
+        <v>0.1827411997056174</v>
       </c>
       <c r="D5">
-        <v>0.1848535678286396</v>
+        <v>0.1421787878094278</v>
       </c>
       <c r="E5">
-        <v>0.09585112355727077</v>
+        <v>0.03426441828793614</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008195037851403754</v>
+        <v>0.0008510274503075344</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.389854394135028</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01627369523501621</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5227186306173763</v>
+        <v>0.3134020599615255</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1221374383552742</v>
       </c>
       <c r="M5">
-        <v>0.6450081461823842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2619864219649948</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.191390054814974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.117512081423513</v>
+        <v>1.423646272692622</v>
       </c>
       <c r="C6">
-        <v>1.236122579710866</v>
+        <v>0.1812616140010732</v>
       </c>
       <c r="D6">
-        <v>0.1835450729128354</v>
+        <v>0.1411075256722967</v>
       </c>
       <c r="E6">
-        <v>0.09522121241514014</v>
+        <v>0.03418844214322014</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008201079075975393</v>
+        <v>0.0008515455715956133</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.342023186368465</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01617642410070097</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5186481637509814</v>
+        <v>0.3110701139824101</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1216024993727558</v>
       </c>
       <c r="M6">
-        <v>0.6401951119546752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2604051904745397</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.149741655509757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.181949610813803</v>
+        <v>1.489789514307546</v>
       </c>
       <c r="C7">
-        <v>1.300525590496363</v>
+        <v>0.1915911300676214</v>
       </c>
       <c r="D7">
-        <v>0.1926748490860888</v>
+        <v>0.1485722333715529</v>
       </c>
       <c r="E7">
-        <v>0.09961505451204999</v>
+        <v>0.03471773436979753</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008159265911392425</v>
+        <v>0.0008479628881817552</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.675295934841188</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0168546793121287</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5470875855152428</v>
+        <v>0.3273643966222721</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1253379119961124</v>
       </c>
       <c r="M7">
-        <v>0.6738071194573081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2714542759900418</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.439812310393876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.480975980409085</v>
+        <v>1.794061538426547</v>
       </c>
       <c r="C8">
-        <v>1.593775825001558</v>
+        <v>0.2389007018131792</v>
       </c>
       <c r="D8">
-        <v>0.2343099932932802</v>
+        <v>0.1823339624993707</v>
       </c>
       <c r="E8">
-        <v>0.1196168647779032</v>
+        <v>0.0371134027351383</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007977266757931932</v>
+        <v>0.0008324639402748546</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.18304805995686</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01993554587717128</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6778782787494251</v>
+        <v>0.4022734629313192</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1424283505522155</v>
       </c>
       <c r="M8">
-        <v>0.8279353416218669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3222315939365288</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.748115232977568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.142463676556133</v>
+        <v>2.449677145912972</v>
       </c>
       <c r="C9">
-        <v>2.215809634246625</v>
+        <v>0.3407796714862315</v>
       </c>
       <c r="D9">
-        <v>0.3228384309885541</v>
+        <v>0.2526684208414878</v>
       </c>
       <c r="E9">
-        <v>0.1619614058588468</v>
+        <v>0.04216649722005084</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007624222251343803</v>
+        <v>0.0008028852240658239</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.3383209668028</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02642597448658179</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9615348834426385</v>
+        <v>0.5637448301802195</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.178725430839684</v>
       </c>
       <c r="M9">
-        <v>1.159852359806976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.431305786371496</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.45918610609928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.702420505776956</v>
+        <v>2.984206942793207</v>
       </c>
       <c r="C10">
-        <v>2.719439656945326</v>
+        <v>0.4246385111096203</v>
       </c>
       <c r="D10">
-        <v>0.3946078624082361</v>
+        <v>0.3082297839804937</v>
       </c>
       <c r="E10">
-        <v>0.1961102665218846</v>
+        <v>0.04626353386243309</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007360771286013431</v>
+        <v>0.0007812997453656291</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.85803605387866</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03163168125926497</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.196742630350883</v>
+        <v>0.695714882849046</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2077858078275341</v>
       </c>
       <c r="M10">
-        <v>1.4328171114078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5198582183659539</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.59076910355486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.981955475247048</v>
+        <v>3.243662098129789</v>
       </c>
       <c r="C11">
-        <v>2.964182265106672</v>
+        <v>0.4657443093055349</v>
       </c>
       <c r="D11">
-        <v>0.4294900055595576</v>
+        <v>0.3347356134555071</v>
       </c>
       <c r="E11">
-        <v>0.2126495534856119</v>
+        <v>0.04825993026330355</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007238081400098295</v>
+        <v>0.0007714132748115885</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.07241998005998</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03414413838078545</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.312725130288015</v>
+        <v>0.7599182395001236</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2217199559219694</v>
       </c>
       <c r="M11">
-        <v>1.566700964852586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.5627129201863568</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.60518062884745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.092380304774565</v>
+        <v>3.344762417776906</v>
       </c>
       <c r="C12">
-        <v>3.059735233456763</v>
+        <v>0.4818427461941894</v>
       </c>
       <c r="D12">
-        <v>0.4431076540846846</v>
+        <v>0.3449900474742975</v>
       </c>
       <c r="E12">
-        <v>0.2190959150724439</v>
+        <v>0.04904029551752664</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007190991021861599</v>
+        <v>0.0007676495839975916</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.54481727017804</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03512184062323165</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.358298927557598</v>
+        <v>0.7849648046474371</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2271193704014252</v>
       </c>
       <c r="M12">
-        <v>1.619182228429409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5793888761735033</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>14.99724803200633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.068375750069833</v>
+        <v>3.322852613727264</v>
       </c>
       <c r="C13">
-        <v>3.039016394978546</v>
+        <v>0.4783499980103443</v>
       </c>
       <c r="D13">
-        <v>0.4401550134046204</v>
+        <v>0.3427711757159244</v>
       </c>
       <c r="E13">
-        <v>0.2176986845927331</v>
+        <v>0.04887104777630213</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007201165044542702</v>
+        <v>0.0007684612337730309</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.44246844294071</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03491000060340355</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.348403302772041</v>
+        <v>0.7795354612704131</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2259506810395919</v>
       </c>
       <c r="M13">
-        <v>1.607792784829712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.5757760705374366</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>14.9124292702802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.990941746228884</v>
+        <v>3.251919258235603</v>
       </c>
       <c r="C14">
-        <v>2.971981620407746</v>
+        <v>0.4670573613805402</v>
       </c>
       <c r="D14">
-        <v>0.4306015591640175</v>
+        <v>0.3355746367416828</v>
       </c>
       <c r="E14">
-        <v>0.213175963982593</v>
+        <v>0.04832360802714231</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007234221378915606</v>
+        <v>0.0007711040989604688</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.11101468053556</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03422401037503775</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.316438910814171</v>
+        <v>0.7619632447101239</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2221615768925318</v>
       </c>
       <c r="M14">
-        <v>1.570980288537257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.5640753796632865</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.63726758047403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.944141377401763</v>
+        <v>3.20885864427197</v>
       </c>
       <c r="C15">
-        <v>2.931316863589245</v>
+        <v>0.4602132520161035</v>
       </c>
       <c r="D15">
-        <v>0.424806015398957</v>
+        <v>0.3311961809106094</v>
       </c>
       <c r="E15">
-        <v>0.2104308766269654</v>
+        <v>0.04799163818976027</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007254379587784397</v>
+        <v>0.0007727199980221744</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.90971664966662</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03380743576251177</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.297087727639649</v>
+        <v>0.7512998609404633</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.219857307178529</v>
       </c>
       <c r="M15">
-        <v>1.548677073210357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.55696928544765</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.46980583759603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.684730729325395</v>
+        <v>2.967619773923275</v>
       </c>
       <c r="C16">
-        <v>2.703809368100224</v>
+        <v>0.4220202990456983</v>
       </c>
       <c r="D16">
-        <v>0.3923801038894794</v>
+        <v>0.3065255883366831</v>
       </c>
       <c r="E16">
-        <v>0.1950526828529036</v>
+        <v>0.04613615929491388</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007368714580433579</v>
+        <v>0.0007819436699152094</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.7802618142577</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03147083034075138</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.189372303553668</v>
+        <v>0.6916137996437612</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2068911852376516</v>
       </c>
       <c r="M16">
-        <v>1.424293434182786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5171156155006358</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.52549644646189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.532572232962252</v>
+        <v>2.824129500964318</v>
       </c>
       <c r="C17">
-        <v>2.568638946657813</v>
+        <v>0.3994168241573135</v>
       </c>
       <c r="D17">
-        <v>0.3731148986787929</v>
+        <v>0.2917323564932985</v>
       </c>
       <c r="E17">
-        <v>0.1859004458894873</v>
+        <v>0.04503525736898162</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007437987753562251</v>
+        <v>0.0007875782442199264</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.10655790942525</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0300778601370979</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.125820189703646</v>
+        <v>0.6561532906322256</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1991329856384851</v>
       </c>
       <c r="M17">
-        <v>1.350717273943076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4933759571270002</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>12.95862648761693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.4473156497898</v>
+        <v>2.743095579328838</v>
       </c>
       <c r="C18">
-        <v>2.492318556406701</v>
+        <v>0.3866866815954353</v>
       </c>
       <c r="D18">
-        <v>0.3622379238738205</v>
+        <v>0.2833366826963584</v>
       </c>
       <c r="E18">
-        <v>0.1807280584650925</v>
+        <v>0.04441415238195656</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007477580327725987</v>
+        <v>0.0007908135050556098</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.72527613583327</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02928984405958879</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.090085787506922</v>
+        <v>0.6361402622102545</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1947365102102765</v>
       </c>
       <c r="M18">
-        <v>1.309283852648662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.479958094614318</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.63668397094409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.418811486816821</v>
+        <v>2.715902384139724</v>
       </c>
       <c r="C19">
-        <v>2.466706388289481</v>
+        <v>0.3824200905662849</v>
       </c>
       <c r="D19">
-        <v>0.3585878972842522</v>
+        <v>0.280512362420211</v>
       </c>
       <c r="E19">
-        <v>0.178991516219277</v>
+        <v>0.04420579356334553</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007490948274888609</v>
+        <v>0.0007919082264574496</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.59717632038297</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02902515441000553</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.078118003733493</v>
+        <v>0.6294263146023056</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1932586961857794</v>
       </c>
       <c r="M19">
-        <v>1.295397258947631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4754535456108897</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.52834416586722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.548529403173518</v>
+        <v>2.839245923483759</v>
       </c>
       <c r="C20">
-        <v>2.582876497502127</v>
+        <v>0.4017942769004037</v>
       </c>
       <c r="D20">
-        <v>0.3751440572807638</v>
+        <v>0.2932951601613212</v>
       </c>
       <c r="E20">
-        <v>0.1868649749741564</v>
+        <v>0.04515116291233223</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007430640949004144</v>
+        <v>0.0007869790810324031</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.17761413851474</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03022474437427292</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.132498352654778</v>
+        <v>0.6598876076669526</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1999519122565943</v>
       </c>
       <c r="M20">
-        <v>1.358455468607744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4958780872261173</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.01853590974326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.013552419086523</v>
+        <v>3.272672155466864</v>
       </c>
       <c r="C21">
-        <v>2.99158744994196</v>
+        <v>0.47035885096426</v>
       </c>
       <c r="D21">
-        <v>0.4333957303043405</v>
+        <v>0.337682175125579</v>
       </c>
       <c r="E21">
-        <v>0.214499057352846</v>
+        <v>0.04848369432556421</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007224531124862898</v>
+        <v>0.0007703284577917449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.20800475658046</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03442473696003745</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.325779321866179</v>
+        <v>0.7671034850561753</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2232710135820071</v>
       </c>
       <c r="M21">
-        <v>1.581740991224848</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.56749929761164</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.71786046609111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.344826251588131</v>
+        <v>3.572876573127132</v>
       </c>
       <c r="C22">
-        <v>3.275895558552065</v>
+        <v>0.5183430998688721</v>
       </c>
       <c r="D22">
-        <v>0.4739087723314981</v>
+        <v>0.3679832857160079</v>
       </c>
       <c r="E22">
-        <v>0.2336548622868904</v>
+        <v>0.05080721311940373</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007085997249439093</v>
+        <v>0.0007593238823940011</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.60995068322825</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03732673412898357</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.461994247149903</v>
+        <v>0.8415401641640301</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2392400158078232</v>
       </c>
       <c r="M22">
-        <v>1.738331349581841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6169673502151696</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.87564034368842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.165098638731763</v>
+        <v>3.410904130102892</v>
       </c>
       <c r="C23">
-        <v>3.122323278238127</v>
+        <v>0.4924003616931714</v>
       </c>
       <c r="D23">
-        <v>0.4520267286997637</v>
+        <v>0.3516771724403327</v>
       </c>
       <c r="E23">
-        <v>0.2233148621012901</v>
+        <v>0.04955169105202284</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007160377165820186</v>
+        <v>0.0007652124173300583</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.85372230234526</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03576124359050503</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.388238240363037</v>
+        <v>0.8013598166763032</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2306426113597553</v>
       </c>
       <c r="M23">
-        <v>1.653620813202878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.5902915812526643</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.25281329747509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.541308318878976</v>
+        <v>2.832407276370986</v>
       </c>
       <c r="C24">
-        <v>2.57643541305049</v>
+        <v>0.400718613178384</v>
       </c>
       <c r="D24">
-        <v>0.3742260615384652</v>
+        <v>0.2925882795636454</v>
       </c>
       <c r="E24">
-        <v>0.186428635823269</v>
+        <v>0.04509872558800332</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007433963151200282</v>
+        <v>0.0007872499746574486</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.14547100088191</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03015829847121232</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.129476681153889</v>
+        <v>0.6581981687290295</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1995814782211767</v>
       </c>
       <c r="M24">
-        <v>1.35495435936366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.494746162277913</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>12.99143863875705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.952946030753282</v>
+        <v>2.264435504058667</v>
       </c>
       <c r="C25">
-        <v>2.040881569203009</v>
+        <v>0.3119253774457889</v>
       </c>
       <c r="D25">
-        <v>0.297923498646341</v>
+        <v>0.2330714558865452</v>
       </c>
       <c r="E25">
-        <v>0.1500690854404283</v>
+        <v>0.04074605765477557</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007719897896249039</v>
+        <v>0.0008108325691763255</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.45617928453214</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02460723687251942</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8809686155523764</v>
+        <v>0.5180897291376994</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1685430388930342</v>
       </c>
       <c r="M25">
-        <v>1.065891283059962</v>
+        <v>0.4005372580260342</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.70543141329486</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.879961535233292</v>
+        <v>1.036180016981916</v>
       </c>
       <c r="C2">
-        <v>0.2522281007637304</v>
+        <v>0.234263586648467</v>
       </c>
       <c r="D2">
-        <v>0.1917177475011584</v>
+        <v>0.1990897750761889</v>
       </c>
       <c r="E2">
-        <v>0.03778136476053984</v>
+        <v>1.379666544347089</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008283307449352317</v>
+        <v>0.0007984703726375827</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3605723252848421</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4234170513308442</v>
+        <v>1.228936229535861</v>
       </c>
       <c r="L2">
-        <v>0.1472251943475982</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3365499942049226</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.110830942702933</v>
+        <v>2.03042129722985</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.63489244000823</v>
+        <v>0.9005238930859321</v>
       </c>
       <c r="C3">
-        <v>0.2141830131762958</v>
+        <v>0.2042238554144404</v>
       </c>
       <c r="D3">
-        <v>0.1647823618842068</v>
+        <v>0.1724973171672985</v>
       </c>
       <c r="E3">
-        <v>0.0358670363741016</v>
+        <v>1.184410701131853</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008403883283462566</v>
+        <v>0.0008033138052019479</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3557693496402337</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.363093622888762</v>
+        <v>1.068615813364374</v>
       </c>
       <c r="L3">
-        <v>0.1335073166980294</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2956802302383323</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.068664163947233</v>
+        <v>1.934595499773849</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.490569668432329</v>
+        <v>0.8175286394533714</v>
       </c>
       <c r="C4">
-        <v>0.1917128267871249</v>
+        <v>0.1858826526416522</v>
       </c>
       <c r="D4">
-        <v>0.1486599809837372</v>
+        <v>0.1563494756080672</v>
       </c>
       <c r="E4">
-        <v>0.03472395499014702</v>
+        <v>1.066773572786644</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008479211486978055</v>
+        <v>0.0008063712595306029</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3537674976472474</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3275565513208036</v>
+        <v>0.9705725103828513</v>
       </c>
       <c r="L4">
-        <v>0.1253819281824278</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2715845777384374</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.443220169701391</v>
+        <v>1.880878592102022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.433110734257838</v>
+        <v>0.7837631360333148</v>
       </c>
       <c r="C5">
-        <v>0.1827411997056174</v>
+        <v>0.1784282717462133</v>
       </c>
       <c r="D5">
-        <v>0.1421787878094278</v>
+        <v>0.1498086232116833</v>
       </c>
       <c r="E5">
-        <v>0.03426441828793614</v>
+        <v>1.019315543075805</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008510274503075344</v>
+        <v>0.0008076389246498714</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.353176028639087</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3134020599615255</v>
+        <v>0.9306931882803156</v>
       </c>
       <c r="L5">
-        <v>0.1221374383552742</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2619864219649948</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.191390054814974</v>
+        <v>1.860188639661402</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.423646272692622</v>
+        <v>0.7781592301528235</v>
       </c>
       <c r="C6">
-        <v>0.1812616140010732</v>
+        <v>0.1771915023724944</v>
       </c>
       <c r="D6">
-        <v>0.1411075256722967</v>
+        <v>0.1487247455752225</v>
       </c>
       <c r="E6">
-        <v>0.03418844214322014</v>
+        <v>1.011461792594986</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008515455715956133</v>
+        <v>0.0008078507517070021</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3530909743744672</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3110701139824101</v>
+        <v>0.9240750383200123</v>
       </c>
       <c r="L6">
-        <v>0.1216024993727558</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2604051904745397</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.149741655509757</v>
+        <v>1.856823126857705</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.489789514307546</v>
+        <v>0.8170730648168956</v>
       </c>
       <c r="C7">
-        <v>0.1915911300676214</v>
+        <v>0.1857820478662546</v>
       </c>
       <c r="D7">
-        <v>0.1485722333715529</v>
+        <v>0.1562611106901386</v>
       </c>
       <c r="E7">
-        <v>0.03471773436979753</v>
+        <v>1.066131701773202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008479628881817552</v>
+        <v>0.0008063882668084984</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3537586303770723</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3273643966222721</v>
+        <v>0.970034415482246</v>
       </c>
       <c r="L7">
-        <v>0.1253379119961124</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2714542759900418</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.439812310393876</v>
+        <v>1.880594812243515</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.794061538426547</v>
+        <v>0.9893318476092929</v>
       </c>
       <c r="C8">
-        <v>0.2389007018131792</v>
+        <v>0.2238805714044929</v>
       </c>
       <c r="D8">
-        <v>0.1823339624993707</v>
+        <v>0.1898797494886821</v>
       </c>
       <c r="E8">
-        <v>0.0371134027351383</v>
+        <v>1.311821087410834</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008324639402748546</v>
+        <v>0.0008001234889911367</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3587110236311197</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4022734629313192</v>
+        <v>1.173560302856743</v>
       </c>
       <c r="L8">
-        <v>0.1424283505522155</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3222315939365288</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.748115232977568</v>
+        <v>1.996263244267482</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.449677145912972</v>
+        <v>1.330454956421079</v>
       </c>
       <c r="C9">
-        <v>0.3407796714862315</v>
+        <v>0.2997193181945192</v>
       </c>
       <c r="D9">
-        <v>0.2526684208414878</v>
+        <v>0.25751570910748</v>
       </c>
       <c r="E9">
-        <v>0.04216649722005084</v>
+        <v>1.815788032083987</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008028852240658239</v>
+        <v>0.0007884663209064552</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3766151473189865</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5637448301802195</v>
+        <v>1.57704510935298</v>
       </c>
       <c r="L9">
-        <v>0.178725430839684</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.431305786371496</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.45918610609928</v>
+        <v>2.267999474584371</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.984206942793207</v>
+        <v>1.584586066458598</v>
       </c>
       <c r="C10">
-        <v>0.4246385111096203</v>
+        <v>0.356603703147897</v>
       </c>
       <c r="D10">
-        <v>0.3082297839804937</v>
+        <v>0.3086779535307755</v>
       </c>
       <c r="E10">
-        <v>0.04626353386243309</v>
+        <v>2.206338678249807</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007812997453656291</v>
+        <v>0.0007802311772139669</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3957920056713533</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.695714882849046</v>
+        <v>1.878075286619378</v>
       </c>
       <c r="L10">
-        <v>0.2077858078275341</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5198582183659539</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.59076910355486</v>
+        <v>2.501550615771663</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.243662098129789</v>
+        <v>1.701328438695583</v>
       </c>
       <c r="C11">
-        <v>0.4657443093055349</v>
+        <v>0.382856073587476</v>
       </c>
       <c r="D11">
-        <v>0.3347356134555071</v>
+        <v>0.3323773295634851</v>
       </c>
       <c r="E11">
-        <v>0.04825993026330355</v>
+        <v>2.390170711104503</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007714132748115885</v>
+        <v>0.0007765430193689949</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4060795495708973</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7599182395001236</v>
+        <v>2.016500647951375</v>
       </c>
       <c r="L11">
-        <v>0.2217199559219694</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5627129201863568</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.60518062884745</v>
+        <v>2.61678977087891</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.344762417776906</v>
+        <v>1.745733290445401</v>
       </c>
       <c r="C12">
-        <v>0.4818427461941894</v>
+        <v>0.3928625209837548</v>
       </c>
       <c r="D12">
-        <v>0.3449900474742975</v>
+        <v>0.3414224619520496</v>
       </c>
       <c r="E12">
-        <v>0.04904029551752664</v>
+        <v>2.460839985288658</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007676495839975916</v>
+        <v>0.0007751535238230337</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4102239936004608</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7849648046474371</v>
+        <v>2.069176978461343</v>
       </c>
       <c r="L12">
-        <v>0.2271193704014252</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5793888761735033</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.99724803200633</v>
+        <v>2.66187389523256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.322852613727264</v>
+        <v>1.736160574060733</v>
       </c>
       <c r="C13">
-        <v>0.4783499980103443</v>
+        <v>0.3907043579604306</v>
       </c>
       <c r="D13">
-        <v>0.3427711757159244</v>
+        <v>0.3394711252531124</v>
       </c>
       <c r="E13">
-        <v>0.04887104777630213</v>
+        <v>2.445570180934013</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007684612337730309</v>
+        <v>0.0007754524802706122</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4093199413481656</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7795354612704131</v>
+        <v>2.057819975004037</v>
       </c>
       <c r="L13">
-        <v>0.2259506810395919</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5757760705374366</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.9124292702802</v>
+        <v>2.652097332585839</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.251919258235603</v>
+        <v>1.704977498294056</v>
       </c>
       <c r="C14">
-        <v>0.4670573613805402</v>
+        <v>0.3836779331429341</v>
       </c>
       <c r="D14">
-        <v>0.3355746367416828</v>
+        <v>0.333120003434658</v>
       </c>
       <c r="E14">
-        <v>0.04832360802714231</v>
+        <v>2.395962498197747</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007711040989604688</v>
+        <v>0.0007764285693277608</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.40641538375165</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7619632447101239</v>
+        <v>2.020828927866575</v>
       </c>
       <c r="L14">
-        <v>0.2221615768925318</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5640753796632865</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.63726758047403</v>
+        <v>2.62046896815076</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.20885864427197</v>
+        <v>1.685903683103248</v>
       </c>
       <c r="C15">
-        <v>0.4602132520161035</v>
+        <v>0.3793828988814596</v>
       </c>
       <c r="D15">
-        <v>0.3311961809106094</v>
+        <v>0.3292392624835827</v>
       </c>
       <c r="E15">
-        <v>0.04799163818976027</v>
+        <v>2.365719304353135</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007727199980221744</v>
+        <v>0.0007770273421875905</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4046694083863471</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7512998609404633</v>
+        <v>1.998205787834195</v>
       </c>
       <c r="L15">
-        <v>0.219857307178529</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.55696928544765</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.46980583759603</v>
+        <v>2.601288728238558</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.967619773923275</v>
+        <v>1.576982343959486</v>
       </c>
       <c r="C16">
-        <v>0.4220202990456983</v>
+        <v>0.3548965358989165</v>
       </c>
       <c r="D16">
-        <v>0.3065255883366831</v>
+        <v>0.3071384971184017</v>
       </c>
       <c r="E16">
-        <v>0.04613615929491388</v>
+        <v>2.194462885074572</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007819436699152094</v>
+        <v>0.0007804732739061936</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3951531455020145</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6916137996437612</v>
+        <v>1.86906241000105</v>
       </c>
       <c r="L16">
-        <v>0.2068911852376516</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5171156155006358</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.52549644646189</v>
+        <v>2.494213106438906</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.824129500964318</v>
+        <v>1.510476599592835</v>
       </c>
       <c r="C17">
-        <v>0.3994168241573135</v>
+        <v>0.339978699918106</v>
       </c>
       <c r="D17">
-        <v>0.2917323564932985</v>
+        <v>0.2936958440281785</v>
       </c>
       <c r="E17">
-        <v>0.04503525736898162</v>
+        <v>2.091095815135674</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007875782442199264</v>
+        <v>0.0007826012833663798</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3897320029033011</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6561532906322256</v>
+        <v>1.790247419888686</v>
       </c>
       <c r="L17">
-        <v>0.1991329856384851</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4933759571270002</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.95862648761693</v>
+        <v>2.430932809945972</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.743095579328838</v>
+        <v>1.47232905240233</v>
       </c>
       <c r="C18">
-        <v>0.3866866815954353</v>
+        <v>0.3314329402081171</v>
       </c>
       <c r="D18">
-        <v>0.2833366826963584</v>
+        <v>0.286003406542406</v>
       </c>
       <c r="E18">
-        <v>0.04441415238195656</v>
+        <v>2.032211057324062</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007908135050556098</v>
+        <v>0.0007838308023073583</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3867595367296488</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6361402622102545</v>
+        <v>1.74505201252461</v>
       </c>
       <c r="L18">
-        <v>0.1947365102102765</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.479958094614318</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.63668397094409</v>
+        <v>2.395372358343252</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.715902384139724</v>
+        <v>1.459429981383835</v>
       </c>
       <c r="C19">
-        <v>0.3824200905662849</v>
+        <v>0.328545110559304</v>
       </c>
       <c r="D19">
-        <v>0.280512362420211</v>
+        <v>0.2834053745339418</v>
       </c>
       <c r="E19">
-        <v>0.04420579356334553</v>
+        <v>2.012366672075316</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007919082264574496</v>
+        <v>0.000784248083457191</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3857774353299988</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6294263146023056</v>
+        <v>1.729771868712817</v>
       </c>
       <c r="L19">
-        <v>0.1932586961857794</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4754535456108897</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.52834416586722</v>
+        <v>2.383471533123242</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.839245923483759</v>
+        <v>1.517545171447324</v>
       </c>
       <c r="C20">
-        <v>0.4017942769004037</v>
+        <v>0.3415630721587775</v>
       </c>
       <c r="D20">
-        <v>0.2932951601613212</v>
+        <v>0.2951226913981344</v>
       </c>
       <c r="E20">
-        <v>0.04515116291233223</v>
+        <v>2.102039348930575</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007869790810324031</v>
+        <v>0.0007823741877129036</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3902938553416817</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6598876076669526</v>
+        <v>1.798622938330851</v>
       </c>
       <c r="L20">
-        <v>0.1999519122565943</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4958780872261173</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.01853590974326</v>
+        <v>2.437581460442431</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.272672155466864</v>
+        <v>1.714131090240244</v>
       </c>
       <c r="C21">
-        <v>0.47035885096426</v>
+        <v>0.3857398972857595</v>
       </c>
       <c r="D21">
-        <v>0.337682175125579</v>
+        <v>0.3349834828184015</v>
       </c>
       <c r="E21">
-        <v>0.04848369432556421</v>
+        <v>2.410503352547579</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007703284577917449</v>
+        <v>0.0007761416852159443</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.407261568012828</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7671034850561753</v>
+        <v>2.031686727085344</v>
       </c>
       <c r="L21">
-        <v>0.2232710135820071</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.56749929761164</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.71786046609111</v>
+        <v>2.629718459800955</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.572876573127132</v>
+        <v>1.843778165608114</v>
       </c>
       <c r="C22">
-        <v>0.5183430998688721</v>
+        <v>0.4149985301750974</v>
       </c>
       <c r="D22">
-        <v>0.3679832857160079</v>
+        <v>0.3614519724090428</v>
       </c>
       <c r="E22">
-        <v>0.05080721311940373</v>
+        <v>2.618354029527097</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007593238823940011</v>
+        <v>0.0007721092764038957</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4198139855301051</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8415401641640301</v>
+        <v>2.185533250701383</v>
       </c>
       <c r="L22">
-        <v>0.2392400158078232</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6169673502151696</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.87564034368842</v>
+        <v>2.763799811651154</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.410904130102892</v>
+        <v>1.774464262919338</v>
       </c>
       <c r="C23">
-        <v>0.4924003616931714</v>
+        <v>0.3993431989535168</v>
       </c>
       <c r="D23">
-        <v>0.3516771724403327</v>
+        <v>0.3472836791319054</v>
       </c>
       <c r="E23">
-        <v>0.04955169105202284</v>
+        <v>2.50678605155224</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007652124173300583</v>
+        <v>0.0007742581455474877</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4129720804660479</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8013598166763032</v>
+        <v>2.103266983774489</v>
       </c>
       <c r="L23">
-        <v>0.2306426113597553</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5902915812526643</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.25281329747509</v>
+        <v>2.691404864522553</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.832407276370986</v>
+        <v>1.514349200088645</v>
       </c>
       <c r="C24">
-        <v>0.400718613178384</v>
+        <v>0.3408466826703886</v>
       </c>
       <c r="D24">
-        <v>0.2925882795636454</v>
+        <v>0.2944775025186317</v>
       </c>
       <c r="E24">
-        <v>0.04509872558800332</v>
+        <v>2.097090100479278</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007872499746574486</v>
+        <v>0.0007824768385553207</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3900393944127032</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6581981687290295</v>
+        <v>1.794836007214343</v>
       </c>
       <c r="L24">
-        <v>0.1995814782211767</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.494746162277913</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.99143863875705</v>
+        <v>2.434573061992836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.264435504058667</v>
+        <v>1.237671570859476</v>
       </c>
       <c r="C25">
-        <v>0.3119253774457889</v>
+        <v>0.2790357737627573</v>
       </c>
       <c r="D25">
-        <v>0.2330714558865452</v>
+        <v>0.2389933216602742</v>
       </c>
       <c r="E25">
-        <v>0.04074605765477557</v>
+        <v>1.676426979197188</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008108325691763255</v>
+        <v>0.0007915578902526507</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3707940465034696</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5180897291376994</v>
+        <v>1.467236089369237</v>
       </c>
       <c r="L25">
-        <v>0.1685430388930342</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4005372580260342</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.70543141329486</v>
+        <v>2.189042349793795</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.036180016981916</v>
+        <v>0.3488604574705505</v>
       </c>
       <c r="C2">
-        <v>0.234263586648467</v>
+        <v>0.06922633686004076</v>
       </c>
       <c r="D2">
-        <v>0.1990897750761889</v>
+        <v>0.0786235355372753</v>
       </c>
       <c r="E2">
-        <v>1.379666544347089</v>
+        <v>0.4135961380017221</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007984703726375827</v>
+        <v>0.002437001023303067</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3605723252848421</v>
+        <v>0.6179804247686214</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.228936229535861</v>
+        <v>0.3928098750408537</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.03042129722985</v>
+        <v>2.939250834118553</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9005238930859321</v>
+        <v>0.3089029672826484</v>
       </c>
       <c r="C3">
-        <v>0.2042238554144404</v>
+        <v>0.06034598482280273</v>
       </c>
       <c r="D3">
-        <v>0.1724973171672985</v>
+        <v>0.07130418711329867</v>
       </c>
       <c r="E3">
-        <v>1.184410701131853</v>
+        <v>0.3608725185316786</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008033138052019479</v>
+        <v>0.002439999921773311</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3557693496402337</v>
+        <v>0.6215252185763802</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.068615813364374</v>
+        <v>0.3455162402882763</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.934595499773849</v>
+        <v>2.938201290481601</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8175286394533714</v>
+        <v>0.2843885206028176</v>
       </c>
       <c r="C4">
-        <v>0.1858826526416522</v>
+        <v>0.05487995987675731</v>
       </c>
       <c r="D4">
-        <v>0.1563494756080672</v>
+        <v>0.06684519773406805</v>
       </c>
       <c r="E4">
-        <v>1.066773572786644</v>
+        <v>0.3285912352611149</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008063712595306029</v>
+        <v>0.002441937328537203</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3537674976472474</v>
+        <v>0.6240811998009725</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9705725103828513</v>
+        <v>0.316476674743285</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.880878592102022</v>
+        <v>2.939490406596235</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7837631360333148</v>
+        <v>0.2744039641116274</v>
       </c>
       <c r="C5">
-        <v>0.1784282717462133</v>
+        <v>0.05264911350766965</v>
       </c>
       <c r="D5">
-        <v>0.1498086232116833</v>
+        <v>0.06503693181619496</v>
       </c>
       <c r="E5">
-        <v>1.019315543075805</v>
+        <v>0.3154575345480595</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008076389246498714</v>
+        <v>0.002442751073565055</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.353176028639087</v>
+        <v>0.625217999181892</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9306931882803156</v>
+        <v>0.3046428383502189</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.860188639661402</v>
+        <v>2.940500720834279</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7781592301528235</v>
+        <v>0.2727463653448012</v>
       </c>
       <c r="C6">
-        <v>0.1771915023724944</v>
+        <v>0.05227847763528359</v>
       </c>
       <c r="D6">
-        <v>0.1487247455752225</v>
+        <v>0.06473720199592492</v>
       </c>
       <c r="E6">
-        <v>1.011461792594986</v>
+        <v>0.31327792190244</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008078507517070021</v>
+        <v>0.00244288766136757</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3530909743744672</v>
+        <v>0.6254125087569378</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9240750383200123</v>
+        <v>0.302677849017698</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.856823126857705</v>
+        <v>2.940697739429027</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8170730648168956</v>
+        <v>0.2842538435409097</v>
       </c>
       <c r="C7">
-        <v>0.1857820478662546</v>
+        <v>0.0548498876736403</v>
       </c>
       <c r="D7">
-        <v>0.1562611106901386</v>
+        <v>0.06682077519144514</v>
       </c>
       <c r="E7">
-        <v>1.066131701773202</v>
+        <v>0.328414026107879</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008063882668084984</v>
+        <v>0.0024419482048059</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3537586303770723</v>
+        <v>0.6240961458205661</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.970034415482246</v>
+        <v>0.316317079000612</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.880594812243515</v>
+        <v>2.939502069974026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9893318476092929</v>
+        <v>0.3350792386076762</v>
       </c>
       <c r="C8">
-        <v>0.2238805714044929</v>
+        <v>0.06616717222738089</v>
       </c>
       <c r="D8">
-        <v>0.1898797494886821</v>
+        <v>0.07609251889113011</v>
       </c>
       <c r="E8">
-        <v>1.311821087410834</v>
+        <v>0.3953970240016247</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008001234889911367</v>
+        <v>0.002438015151102247</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3587110236311197</v>
+        <v>0.6191237891052133</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.173560302856743</v>
+        <v>0.3765034149490134</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.996263244267482</v>
+        <v>2.938486903741392</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.330454956421079</v>
+        <v>0.4348932631119453</v>
       </c>
       <c r="C9">
-        <v>0.2997193181945192</v>
+        <v>0.08825535744827562</v>
       </c>
       <c r="D9">
-        <v>0.25751570910748</v>
+        <v>0.09455506540996339</v>
       </c>
       <c r="E9">
-        <v>1.815788032083987</v>
+        <v>0.5275598072005607</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007884663209064552</v>
+        <v>0.002431061147318442</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3766151473189865</v>
+        <v>0.6123934197113527</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.57704510935298</v>
+        <v>0.4945132579337894</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.267999474584371</v>
+        <v>2.951897036977698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.584586066458598</v>
+        <v>0.5083095854439819</v>
       </c>
       <c r="C10">
-        <v>0.356603703147897</v>
+        <v>0.1044236370520935</v>
       </c>
       <c r="D10">
-        <v>0.3086779535307755</v>
+        <v>0.1082948454944557</v>
       </c>
       <c r="E10">
-        <v>2.206338678249807</v>
+        <v>0.625280432431822</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007802311772139669</v>
+        <v>0.002426409541789945</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3957920056713533</v>
+        <v>0.6093036924781856</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.878075286619378</v>
+        <v>0.5812056910332899</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.501550615771663</v>
+        <v>2.971226239622069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.701328438695583</v>
+        <v>0.5417259162998675</v>
       </c>
       <c r="C11">
-        <v>0.382856073587476</v>
+        <v>0.1117669938820427</v>
       </c>
       <c r="D11">
-        <v>0.3323773295634851</v>
+        <v>0.1145845000201717</v>
       </c>
       <c r="E11">
-        <v>2.390170711104503</v>
+        <v>0.6698989831981379</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007765430193689949</v>
+        <v>0.002424391676371753</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4060795495708973</v>
+        <v>0.6083039261767382</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.016500647951375</v>
+        <v>0.6206429416421599</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.61678977087891</v>
+        <v>2.982096840127156</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.745733290445401</v>
+        <v>0.5543823056831343</v>
       </c>
       <c r="C12">
-        <v>0.3928625209837548</v>
+        <v>0.1145461001639774</v>
       </c>
       <c r="D12">
-        <v>0.3414224619520496</v>
+        <v>0.1169719371382598</v>
       </c>
       <c r="E12">
-        <v>2.460839985288658</v>
+        <v>0.6868207006622669</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007751535238230337</v>
+        <v>0.002423641599095916</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4102239936004608</v>
+        <v>0.6079839296192517</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.069176978461343</v>
+        <v>0.6355767243837818</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.66187389523256</v>
+        <v>2.986513497538596</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.736160574060733</v>
+        <v>0.5516564269991022</v>
       </c>
       <c r="C13">
-        <v>0.3907043579604306</v>
+        <v>0.1139476436316613</v>
       </c>
       <c r="D13">
-        <v>0.3394711252531124</v>
+        <v>0.1164575068084019</v>
       </c>
       <c r="E13">
-        <v>2.445570180934013</v>
+        <v>0.6831751348615853</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007754524802706122</v>
+        <v>0.002423802518214553</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4093199413481656</v>
+        <v>0.6080502367444609</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.057819975004037</v>
+        <v>0.632360482969375</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.652097332585839</v>
+        <v>2.985548917082497</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.704977498294056</v>
+        <v>0.5427671200397413</v>
       </c>
       <c r="C14">
-        <v>0.3836779331429341</v>
+        <v>0.1119956658761225</v>
       </c>
       <c r="D14">
-        <v>0.333120003434658</v>
+        <v>0.1147808019193661</v>
       </c>
       <c r="E14">
-        <v>2.395962498197747</v>
+        <v>0.6712906181240044</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007764285693277608</v>
+        <v>0.002424329685935519</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.40641538375165</v>
+        <v>0.6082764241665259</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.020828927866575</v>
+        <v>0.621871559660292</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.62046896815076</v>
+        <v>2.982454176558178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.685903683103248</v>
+        <v>0.5373224581851161</v>
       </c>
       <c r="C15">
-        <v>0.3793828988814596</v>
+        <v>0.1107998069692826</v>
       </c>
       <c r="D15">
-        <v>0.3292392624835827</v>
+        <v>0.113754512297362</v>
       </c>
       <c r="E15">
-        <v>2.365719304353135</v>
+        <v>0.6640144049970047</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007770273421875905</v>
+        <v>0.002424654418476199</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4046694083863471</v>
+        <v>0.6084226083422664</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.998205787834195</v>
+        <v>0.6154467498734562</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.601288728238558</v>
+        <v>2.980597695809251</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.576982343959486</v>
+        <v>0.5061260982206477</v>
       </c>
       <c r="C16">
-        <v>0.3548965358989165</v>
+        <v>0.1039434977587348</v>
       </c>
       <c r="D16">
-        <v>0.3071384971184017</v>
+        <v>0.1078845956373158</v>
       </c>
       <c r="E16">
-        <v>2.194462885074572</v>
+        <v>0.6223679881735507</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007804732739061936</v>
+        <v>0.002426543383477364</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3951531455020145</v>
+        <v>0.6093772154873065</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.86906241000105</v>
+        <v>0.5786283559468757</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.494213106438906</v>
+        <v>2.970557750281444</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.510476599592835</v>
+        <v>0.4869927157791096</v>
       </c>
       <c r="C17">
-        <v>0.339978699918106</v>
+        <v>0.0997343943533906</v>
       </c>
       <c r="D17">
-        <v>0.2936958440281785</v>
+        <v>0.104293688152822</v>
       </c>
       <c r="E17">
-        <v>2.091095815135674</v>
+        <v>0.5968628683563679</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007826012833663798</v>
+        <v>0.002427727294962482</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3897320029033011</v>
+        <v>0.6100669361268132</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.790247419888686</v>
+        <v>0.556041351011487</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.430932809945972</v>
+        <v>2.964931722162703</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.47232905240233</v>
+        <v>0.4759894985475057</v>
       </c>
       <c r="C18">
-        <v>0.3314329402081171</v>
+        <v>0.09731232953083691</v>
       </c>
       <c r="D18">
-        <v>0.286003406542406</v>
+        <v>0.1022319965652088</v>
       </c>
       <c r="E18">
-        <v>2.032211057324062</v>
+        <v>0.5822084077339156</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007838308023073583</v>
+        <v>0.002428417494452665</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3867595367296488</v>
+        <v>0.6105018231135517</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.74505201252461</v>
+        <v>0.5430499615679594</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.395372358343252</v>
+        <v>2.961891251513521</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.459429981383835</v>
+        <v>0.4722643183071398</v>
       </c>
       <c r="C19">
-        <v>0.328545110559304</v>
+        <v>0.09649207065248788</v>
       </c>
       <c r="D19">
-        <v>0.2834053745339418</v>
+        <v>0.1015345786282325</v>
       </c>
       <c r="E19">
-        <v>2.012366672075316</v>
+        <v>0.5772492475576598</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000784248083457191</v>
+        <v>0.002428652774132136</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3857774353299988</v>
+        <v>0.6106556180420384</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.729771868712817</v>
+        <v>0.5386513198956209</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.383471533123242</v>
+        <v>2.960895329364433</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.517545171447324</v>
+        <v>0.4890293135451032</v>
       </c>
       <c r="C20">
-        <v>0.3415630721587775</v>
+        <v>0.1001825743242364</v>
       </c>
       <c r="D20">
-        <v>0.2951226913981344</v>
+        <v>0.1046755629396898</v>
       </c>
       <c r="E20">
-        <v>2.102039348930575</v>
+        <v>0.5995763232201767</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007823741877129036</v>
+        <v>0.002427600309287348</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3902938553416817</v>
+        <v>0.6099895611440402</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.798622938330851</v>
+        <v>0.5584457724687297</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.437581460442431</v>
+        <v>2.965510381470779</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.714131090240244</v>
+        <v>0.5453780640695243</v>
       </c>
       <c r="C21">
-        <v>0.3857398972857595</v>
+        <v>0.112569054080069</v>
       </c>
       <c r="D21">
-        <v>0.3349834828184015</v>
+        <v>0.1152731364234825</v>
       </c>
       <c r="E21">
-        <v>2.410503352547579</v>
+        <v>0.6747806774853586</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007761416852159443</v>
+        <v>0.002424174463340687</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.407261568012828</v>
+        <v>0.6082083952784885</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.031686727085344</v>
+        <v>0.6249524198627512</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.629718459800955</v>
+        <v>2.983355018143556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.843778165608114</v>
+        <v>0.5822187629965185</v>
       </c>
       <c r="C22">
-        <v>0.4149985301750974</v>
+        <v>0.1206546461209541</v>
       </c>
       <c r="D22">
-        <v>0.3614519724090428</v>
+        <v>0.1222323893024537</v>
       </c>
       <c r="E22">
-        <v>2.618354029527097</v>
+        <v>0.7240814296563229</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007721092764038957</v>
+        <v>0.002422017304169488</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4198139855301051</v>
+        <v>0.6073859410726996</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.185533250701383</v>
+        <v>0.6684167729765136</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.763799811651154</v>
+        <v>2.996767968340038</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.774464262919338</v>
+        <v>0.5625550693566765</v>
       </c>
       <c r="C23">
-        <v>0.3993431989535168</v>
+        <v>0.1163400945734736</v>
       </c>
       <c r="D23">
-        <v>0.3472836791319054</v>
+        <v>0.1185150668646315</v>
       </c>
       <c r="E23">
-        <v>2.50678605155224</v>
+        <v>0.6977542924298064</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007742581455474877</v>
+        <v>0.002423161157202028</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4129720804660479</v>
+        <v>0.6077935590927623</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.103266983774489</v>
+        <v>0.6452192754348687</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.691404864522553</v>
+        <v>2.989448582474637</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.514349200088645</v>
+        <v>0.4881085775774636</v>
       </c>
       <c r="C24">
-        <v>0.3408466826703886</v>
+        <v>0.09997995899948364</v>
       </c>
       <c r="D24">
-        <v>0.2944775025186317</v>
+        <v>0.1045029087275395</v>
       </c>
       <c r="E24">
-        <v>2.097090100479278</v>
+        <v>0.598349543135086</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007824768385553207</v>
+        <v>0.002427657689885588</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3900393944127032</v>
+        <v>0.610024422904047</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.794836007214343</v>
+        <v>0.5573587516356611</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.434573061992836</v>
+        <v>2.965248165348441</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.237671570859476</v>
+        <v>0.4078759589691856</v>
       </c>
       <c r="C25">
-        <v>0.2790357737627573</v>
+        <v>0.08229073925042485</v>
       </c>
       <c r="D25">
-        <v>0.2389933216602742</v>
+        <v>0.08952997106145233</v>
       </c>
       <c r="E25">
-        <v>1.676426979197188</v>
+        <v>0.4917065409114088</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007915578902526507</v>
+        <v>0.00243286168645336</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3707940465034696</v>
+        <v>0.6138893901710318</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.467236089369237</v>
+        <v>0.4625901418464196</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.189042349793795</v>
+        <v>2.946611403764678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3488604574705505</v>
+        <v>1.036180016981916</v>
       </c>
       <c r="C2">
-        <v>0.06922633686004076</v>
+        <v>0.2342635866484812</v>
       </c>
       <c r="D2">
-        <v>0.0786235355372753</v>
+        <v>0.1990897750760183</v>
       </c>
       <c r="E2">
-        <v>0.4135961380017221</v>
+        <v>1.379666544347032</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002437001023303067</v>
+        <v>0.0007984703726358324</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6179804247686214</v>
+        <v>0.3605723252848527</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3928098750408537</v>
+        <v>1.228936229535947</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.939250834118553</v>
+        <v>2.030421297229964</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3089029672826484</v>
+        <v>0.9005238930859036</v>
       </c>
       <c r="C3">
-        <v>0.06034598482280273</v>
+        <v>0.2042238554141989</v>
       </c>
       <c r="D3">
-        <v>0.07130418711329867</v>
+        <v>0.1724973171672843</v>
       </c>
       <c r="E3">
-        <v>0.3608725185316786</v>
+        <v>1.184410701131867</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002439999921773311</v>
+        <v>0.0008033138052293227</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6215252185763802</v>
+        <v>0.3557693496402443</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3455162402882763</v>
+        <v>1.068615813364318</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.938201290481601</v>
+        <v>1.93459549977382</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2843885206028176</v>
+        <v>0.8175286394533714</v>
       </c>
       <c r="C4">
-        <v>0.05487995987675731</v>
+        <v>0.1858826526417943</v>
       </c>
       <c r="D4">
-        <v>0.06684519773406805</v>
+        <v>0.1563494756081667</v>
       </c>
       <c r="E4">
-        <v>0.3285912352611149</v>
+        <v>1.066773572786659</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002441937328537203</v>
+        <v>0.0008063712595359536</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6240811998009725</v>
+        <v>0.3537674976472331</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.316476674743285</v>
+        <v>0.9705725103828513</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.939490406596235</v>
+        <v>1.880878592101908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2744039641116274</v>
+        <v>0.7837631360333148</v>
       </c>
       <c r="C5">
-        <v>0.05264911350766965</v>
+        <v>0.1784282717463128</v>
       </c>
       <c r="D5">
-        <v>0.06503693181619496</v>
+        <v>0.1498086232118112</v>
       </c>
       <c r="E5">
-        <v>0.3154575345480595</v>
+        <v>1.019315543075791</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002442751073565055</v>
+        <v>0.0008076389246502446</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.625217999181892</v>
+        <v>0.3531760286390835</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3046428383502189</v>
+        <v>0.9306931882803724</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.940500720834279</v>
+        <v>1.860188639661402</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2727463653448012</v>
+        <v>0.7781592301527951</v>
       </c>
       <c r="C6">
-        <v>0.05227847763528359</v>
+        <v>0.1771915023725938</v>
       </c>
       <c r="D6">
-        <v>0.06473720199592492</v>
+        <v>0.1487247455753362</v>
       </c>
       <c r="E6">
-        <v>0.31327792190244</v>
+        <v>1.011461792594972</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00244288766136757</v>
+        <v>0.0008078507516819111</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6254125087569378</v>
+        <v>0.3530909743744672</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.302677849017698</v>
+        <v>0.9240750383201259</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.940697739429027</v>
+        <v>1.856823126857762</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2842538435409097</v>
+        <v>0.8170730648168956</v>
       </c>
       <c r="C7">
-        <v>0.0548498876736403</v>
+        <v>0.1857820478664678</v>
       </c>
       <c r="D7">
-        <v>0.06682077519144514</v>
+        <v>0.1562611106901102</v>
       </c>
       <c r="E7">
-        <v>0.328414026107879</v>
+        <v>1.066131701773188</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0024419482048059</v>
+        <v>0.0008063882668357227</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6240961458205661</v>
+        <v>0.3537586303770759</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.316317079000612</v>
+        <v>0.970034415482246</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.939502069974026</v>
+        <v>1.880594812243487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3350792386076762</v>
+        <v>0.9893318476092929</v>
       </c>
       <c r="C8">
-        <v>0.06616717222738089</v>
+        <v>0.2238805714044929</v>
       </c>
       <c r="D8">
-        <v>0.07609251889113011</v>
+        <v>0.1898797494886679</v>
       </c>
       <c r="E8">
-        <v>0.3953970240016247</v>
+        <v>1.311821087410877</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002438015151102247</v>
+        <v>0.0008001234890153971</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6191237891052133</v>
+        <v>0.3587110236311233</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3765034149490134</v>
+        <v>1.173560302856771</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.938486903741392</v>
+        <v>1.996263244267453</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4348932631119453</v>
+        <v>1.33045495642105</v>
       </c>
       <c r="C9">
-        <v>0.08825535744827562</v>
+        <v>0.2997193181945192</v>
       </c>
       <c r="D9">
-        <v>0.09455506540996339</v>
+        <v>0.2575157091075368</v>
       </c>
       <c r="E9">
-        <v>0.5275598072005607</v>
+        <v>1.815788032083987</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002431061147318442</v>
+        <v>0.0007884663209067915</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6123934197113527</v>
+        <v>0.3766151473189865</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4945132579337894</v>
+        <v>1.577045109352923</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.951897036977698</v>
+        <v>2.267999474584315</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5083095854439819</v>
+        <v>1.584586066458456</v>
       </c>
       <c r="C10">
-        <v>0.1044236370520935</v>
+        <v>0.356603703147556</v>
       </c>
       <c r="D10">
-        <v>0.1082948454944557</v>
+        <v>0.3086779535307755</v>
       </c>
       <c r="E10">
-        <v>0.625280432431822</v>
+        <v>2.206338678249793</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002426409541789945</v>
+        <v>0.0007802311771524385</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6093036924781856</v>
+        <v>0.3957920056713391</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5812056910332899</v>
+        <v>1.878075286619435</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.971226239622069</v>
+        <v>2.501550615771691</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5417259162998675</v>
+        <v>1.701328438695612</v>
       </c>
       <c r="C11">
-        <v>0.1117669938820427</v>
+        <v>0.3828560735875897</v>
       </c>
       <c r="D11">
-        <v>0.1145845000201717</v>
+        <v>0.3323773295634567</v>
       </c>
       <c r="E11">
-        <v>0.6698989831981379</v>
+        <v>2.390170711104503</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002424391676371753</v>
+        <v>0.0007765430194004025</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6083039261767382</v>
+        <v>0.406079549570876</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6206429416421599</v>
+        <v>2.016500647951403</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.982096840127156</v>
+        <v>2.616789770879024</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5543823056831343</v>
+        <v>1.745733290445344</v>
       </c>
       <c r="C12">
-        <v>0.1145461001639774</v>
+        <v>0.3928625209836696</v>
       </c>
       <c r="D12">
-        <v>0.1169719371382598</v>
+        <v>0.3414224619520212</v>
       </c>
       <c r="E12">
-        <v>0.6868207006622669</v>
+        <v>2.460839985288672</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002423641599095916</v>
+        <v>0.0007751535238216108</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6079839296192517</v>
+        <v>0.4102239936004608</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6355767243837818</v>
+        <v>2.069176978461371</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.986513497538596</v>
+        <v>2.661873895232588</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5516564269991022</v>
+        <v>1.736160574060705</v>
       </c>
       <c r="C13">
-        <v>0.1139476436316613</v>
+        <v>0.3907043579604306</v>
       </c>
       <c r="D13">
-        <v>0.1164575068084019</v>
+        <v>0.3394711252531266</v>
       </c>
       <c r="E13">
-        <v>0.6831751348615853</v>
+        <v>2.445570180933998</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002423802518214553</v>
+        <v>0.0007754524802993484</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6080502367444609</v>
+        <v>0.4093199413481798</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.632360482969375</v>
+        <v>2.05781997500398</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.985548917082497</v>
+        <v>2.652097332585811</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5427671200397413</v>
+        <v>1.704977498293886</v>
       </c>
       <c r="C14">
-        <v>0.1119956658761225</v>
+        <v>0.3836779331427067</v>
       </c>
       <c r="D14">
-        <v>0.1147808019193661</v>
+        <v>0.3331200034346864</v>
       </c>
       <c r="E14">
-        <v>0.6712906181240044</v>
+        <v>2.395962498197747</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002424329685935519</v>
+        <v>0.000776428569330704</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6082764241665259</v>
+        <v>0.4064153837516571</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.621871559660292</v>
+        <v>2.020828927866603</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.982454176558178</v>
+        <v>2.620468968150817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5373224581851161</v>
+        <v>1.685903683103362</v>
       </c>
       <c r="C15">
-        <v>0.1107998069692826</v>
+        <v>0.379382898881687</v>
       </c>
       <c r="D15">
-        <v>0.113754512297362</v>
+        <v>0.3292392624835685</v>
       </c>
       <c r="E15">
-        <v>0.6640144049970047</v>
+        <v>2.365719304353149</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002424654418476199</v>
+        <v>0.0007770273421590947</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6084226083422664</v>
+        <v>0.4046694083863329</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6154467498734562</v>
+        <v>1.998205787834223</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.980597695809251</v>
+        <v>2.601288728238529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5061260982206477</v>
+        <v>1.5769823439596</v>
       </c>
       <c r="C16">
-        <v>0.1039434977587348</v>
+        <v>0.3548965358988596</v>
       </c>
       <c r="D16">
-        <v>0.1078845956373158</v>
+        <v>0.307138497118288</v>
       </c>
       <c r="E16">
-        <v>0.6223679881735507</v>
+        <v>2.1944628850746</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002426543383477364</v>
+        <v>0.0007804732739349101</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6093772154873065</v>
+        <v>0.3951531455020216</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5786283559468757</v>
+        <v>1.869062410001078</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.970557750281444</v>
+        <v>2.494213106438991</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4869927157791096</v>
+        <v>1.510476599592948</v>
       </c>
       <c r="C17">
-        <v>0.0997343943533906</v>
+        <v>0.3399786999178787</v>
       </c>
       <c r="D17">
-        <v>0.104293688152822</v>
+        <v>0.2936958440281785</v>
       </c>
       <c r="E17">
-        <v>0.5968628683563679</v>
+        <v>2.091095815135617</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002427727294962482</v>
+        <v>0.0007826012833664623</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6100669361268132</v>
+        <v>0.3897320029033295</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.556041351011487</v>
+        <v>1.79024741988863</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.964931722162703</v>
+        <v>2.430932809945915</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4759894985475057</v>
+        <v>1.472329052402273</v>
       </c>
       <c r="C18">
-        <v>0.09731232953083691</v>
+        <v>0.3314329402082308</v>
       </c>
       <c r="D18">
-        <v>0.1022319965652088</v>
+        <v>0.2860034065422923</v>
       </c>
       <c r="E18">
-        <v>0.5822084077339156</v>
+        <v>2.032211057324034</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002428417494452665</v>
+        <v>0.0007838308022768722</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6105018231135517</v>
+        <v>0.3867595367296559</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5430499615679594</v>
+        <v>1.74505201252461</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.961891251513521</v>
+        <v>2.395372358343309</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4722643183071398</v>
+        <v>1.459429981383863</v>
       </c>
       <c r="C19">
-        <v>0.09649207065248788</v>
+        <v>0.3285451105597588</v>
       </c>
       <c r="D19">
-        <v>0.1015345786282325</v>
+        <v>0.2834053745342118</v>
       </c>
       <c r="E19">
-        <v>0.5772492475576598</v>
+        <v>2.012366672075345</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002428652774132136</v>
+        <v>0.0007842480834860289</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6106556180420384</v>
+        <v>0.3857774353299561</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5386513198956209</v>
+        <v>1.729771868712845</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.960895329364433</v>
+        <v>2.383471533123213</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4890293135451032</v>
+        <v>1.517545171447239</v>
       </c>
       <c r="C20">
-        <v>0.1001825743242364</v>
+        <v>0.3415630721588911</v>
       </c>
       <c r="D20">
-        <v>0.1046755629396898</v>
+        <v>0.2951226913982339</v>
       </c>
       <c r="E20">
-        <v>0.5995763232201767</v>
+        <v>2.102039348930617</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002427600309287348</v>
+        <v>0.0007823741877991682</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6099895611440402</v>
+        <v>0.3902938553416675</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5584457724687297</v>
+        <v>1.798622938330766</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.965510381470779</v>
+        <v>2.437581460442374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5453780640695243</v>
+        <v>1.714131090240215</v>
       </c>
       <c r="C21">
-        <v>0.112569054080069</v>
+        <v>0.3857398972857027</v>
       </c>
       <c r="D21">
-        <v>0.1152731364234825</v>
+        <v>0.3349834828185152</v>
       </c>
       <c r="E21">
-        <v>0.6747806774853586</v>
+        <v>2.410503352547522</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002424174463340687</v>
+        <v>0.0007761416851838832</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6082083952784885</v>
+        <v>0.407261568012828</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6249524198627512</v>
+        <v>2.031686727085429</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.983355018143556</v>
+        <v>2.629718459800955</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5822187629965185</v>
+        <v>1.843778165608171</v>
       </c>
       <c r="C22">
-        <v>0.1206546461209541</v>
+        <v>0.4149985301750689</v>
       </c>
       <c r="D22">
-        <v>0.1222323893024537</v>
+        <v>0.361451972408787</v>
       </c>
       <c r="E22">
-        <v>0.7240814296563229</v>
+        <v>2.618354029527069</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002422017304169488</v>
+        <v>0.0007721092764353275</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6073859410726996</v>
+        <v>0.4198139855301264</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6684167729765136</v>
+        <v>2.18553325070144</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.996767968340038</v>
+        <v>2.763799811651268</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5625550693566765</v>
+        <v>1.774464262919366</v>
       </c>
       <c r="C23">
-        <v>0.1163400945734736</v>
+        <v>0.3993431989533462</v>
       </c>
       <c r="D23">
-        <v>0.1185150668646315</v>
+        <v>0.3472836791317064</v>
       </c>
       <c r="E23">
-        <v>0.6977542924298064</v>
+        <v>2.506786051552254</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002423161157202028</v>
+        <v>0.0007742581455753016</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6077935590927623</v>
+        <v>0.4129720804660693</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6452192754348687</v>
+        <v>2.103266983774603</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.989448582474637</v>
+        <v>2.691404864522667</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4881085775774636</v>
+        <v>1.514349200088645</v>
       </c>
       <c r="C24">
-        <v>0.09997995899948364</v>
+        <v>0.340846682670275</v>
       </c>
       <c r="D24">
-        <v>0.1045029087275395</v>
+        <v>0.2944775025186885</v>
       </c>
       <c r="E24">
-        <v>0.598349543135086</v>
+        <v>2.097090100479207</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002427657689885588</v>
+        <v>0.000782476838555148</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.610024422904047</v>
+        <v>0.3900393944127032</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5573587516356611</v>
+        <v>1.794836007214371</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.965248165348441</v>
+        <v>2.434573061992808</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4078759589691856</v>
+        <v>1.237671570859504</v>
       </c>
       <c r="C25">
-        <v>0.08229073925042485</v>
+        <v>0.2790357737625584</v>
       </c>
       <c r="D25">
-        <v>0.08952997106145233</v>
+        <v>0.2389933216601889</v>
       </c>
       <c r="E25">
-        <v>0.4917065409114088</v>
+        <v>1.676426979197217</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00243286168645336</v>
+        <v>0.0007915578902516377</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6138893901710318</v>
+        <v>0.3707940465034767</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4625901418464196</v>
+        <v>1.467236089369152</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.946611403764678</v>
+        <v>2.189042349793766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.036180016981916</v>
+        <v>0.9233232653373022</v>
       </c>
       <c r="C2">
-        <v>0.2342635866484812</v>
+        <v>0.1777940514026213</v>
       </c>
       <c r="D2">
-        <v>0.1990897750760183</v>
+        <v>0.1940072345393418</v>
       </c>
       <c r="E2">
-        <v>1.379666544347032</v>
+        <v>0.0640470618961384</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007984703726358324</v>
+        <v>0.4411312174439743</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.006555675604264372</v>
       </c>
       <c r="I2">
-        <v>0.3605723252848527</v>
+        <v>0.00679873676719378</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3793917514112337</v>
       </c>
       <c r="K2">
-        <v>1.228936229535947</v>
+        <v>0.4363996526304312</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8766341402491662</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1642066038286174</v>
       </c>
       <c r="O2">
-        <v>2.030421297229964</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.202896067052496</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.676113887067601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9005238930859036</v>
+        <v>0.8043765736154</v>
       </c>
       <c r="C3">
-        <v>0.2042238554141989</v>
+        <v>0.1683053671720103</v>
       </c>
       <c r="D3">
-        <v>0.1724973171672843</v>
+        <v>0.1686284903001081</v>
       </c>
       <c r="E3">
-        <v>1.184410701131867</v>
+        <v>0.0607213322177973</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008033138052293227</v>
+        <v>0.4304649423298343</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.008512500296008155</v>
       </c>
       <c r="I3">
-        <v>0.3557693496402443</v>
+        <v>0.008766563112086789</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3787371398521913</v>
       </c>
       <c r="K3">
-        <v>1.068615813364318</v>
+        <v>0.4366583842151002</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.769626789184386</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1467991754380762</v>
       </c>
       <c r="O3">
-        <v>1.93459549977382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1771184413590063</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.651840853146197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8175286394533714</v>
+        <v>0.7311100542241604</v>
       </c>
       <c r="C4">
-        <v>0.1858826526417943</v>
+        <v>0.1624922299194793</v>
       </c>
       <c r="D4">
-        <v>0.1563494756081667</v>
+        <v>0.1531446424905596</v>
       </c>
       <c r="E4">
-        <v>1.066773572786659</v>
+        <v>0.0586460446845134</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008063712595359536</v>
+        <v>0.4242671493950922</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009891771281617216</v>
       </c>
       <c r="I4">
-        <v>0.3537674976472331</v>
+        <v>0.01018935867024728</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3785836448624593</v>
       </c>
       <c r="K4">
-        <v>0.9705725103828513</v>
+        <v>0.4370218654498572</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7039017163575778</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1361254336202649</v>
       </c>
       <c r="O4">
-        <v>1.880878592101908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1612712231865743</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.638194244798285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7837631360333148</v>
+        <v>0.7008971669542632</v>
       </c>
       <c r="C5">
-        <v>0.1784282717463128</v>
+        <v>0.1603001202063368</v>
       </c>
       <c r="D5">
-        <v>0.1498086232118112</v>
+        <v>0.1468560904301626</v>
       </c>
       <c r="E5">
-        <v>1.019315543075791</v>
+        <v>0.05774602293697129</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008076389246502446</v>
+        <v>0.4213404511806615</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0105009067279001</v>
       </c>
       <c r="I5">
-        <v>0.3531760286390835</v>
+        <v>0.01090543343419137</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3783280890898126</v>
       </c>
       <c r="K5">
-        <v>0.9306931882803724</v>
+        <v>0.4367938384940828</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6774241952440292</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1318327184880985</v>
       </c>
       <c r="O5">
-        <v>1.860188639661402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1547909379882029</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.631376686723797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7781592301527951</v>
+        <v>0.6955155045605466</v>
       </c>
       <c r="C6">
-        <v>0.1771915023725938</v>
+        <v>0.1601524234376726</v>
       </c>
       <c r="D6">
-        <v>0.1487247455753362</v>
+        <v>0.145812171074823</v>
       </c>
       <c r="E6">
-        <v>1.011461792594972</v>
+        <v>0.05754014493000348</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008078507516819111</v>
+        <v>0.4202661061182056</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01060943823395107</v>
       </c>
       <c r="I6">
-        <v>0.3530909743744672</v>
+        <v>0.01113756243103392</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3779790147433104</v>
       </c>
       <c r="K6">
-        <v>0.9240750383201259</v>
+        <v>0.4362385412488052</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6734148683858763</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1311867048784947</v>
       </c>
       <c r="O6">
-        <v>1.856823126857762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1536942078296448</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.628354985449079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8170730648168956</v>
+        <v>0.7297131473889067</v>
       </c>
       <c r="C7">
-        <v>0.1857820478664678</v>
+        <v>0.163055774311907</v>
       </c>
       <c r="D7">
-        <v>0.1562611106901102</v>
+        <v>0.15305700317532</v>
       </c>
       <c r="E7">
-        <v>1.066131701773188</v>
+        <v>0.05848142492263975</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008063882668357227</v>
+        <v>0.4226082471431454</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.009912237208036512</v>
       </c>
       <c r="I7">
-        <v>0.3537586303770759</v>
+        <v>0.01048301359281112</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3777346151278635</v>
       </c>
       <c r="K7">
-        <v>0.970034415482246</v>
+        <v>0.4355998936264243</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7046080774757115</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1362502824469445</v>
       </c>
       <c r="O7">
-        <v>1.880594812243487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1611281085555021</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.632898293088928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9893318476092929</v>
+        <v>0.8810326589294846</v>
       </c>
       <c r="C8">
-        <v>0.2238805714044929</v>
+        <v>0.1753190849502104</v>
       </c>
       <c r="D8">
-        <v>0.1898797494886679</v>
+        <v>0.1852301944351638</v>
       </c>
       <c r="E8">
-        <v>1.311821087410877</v>
+        <v>0.06270630182610937</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008001234890153971</v>
+        <v>0.4352456058167533</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.007205660387601925</v>
       </c>
       <c r="I8">
-        <v>0.3587110236311233</v>
+        <v>0.007772805147509665</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3780051477558217</v>
       </c>
       <c r="K8">
-        <v>1.173560302856771</v>
+        <v>0.4345842563812568</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8411622381823349</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.158445707974245</v>
       </c>
       <c r="O8">
-        <v>1.996263244267453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1939364527270087</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.66063458843449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.33045495642105</v>
+        <v>1.177866745384847</v>
       </c>
       <c r="C9">
-        <v>0.2997193181945192</v>
+        <v>0.1984766194848504</v>
       </c>
       <c r="D9">
-        <v>0.2575157091075368</v>
+        <v>0.2492467103412253</v>
       </c>
       <c r="E9">
-        <v>1.815788032083987</v>
+        <v>0.07100856339415884</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007884663209067915</v>
+        <v>0.4658785003471451</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003366469779667147</v>
       </c>
       <c r="I9">
-        <v>0.3766151473189865</v>
+        <v>0.003814030382626399</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3820771302178656</v>
       </c>
       <c r="K9">
-        <v>1.577045109352923</v>
+        <v>0.4367925601358387</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.107098007387833</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.201807780261376</v>
       </c>
       <c r="O9">
-        <v>2.267999474584315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2582652962153809</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.734782905741184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.584586066458456</v>
+        <v>1.393296201727907</v>
       </c>
       <c r="C10">
-        <v>0.356603703147556</v>
+        <v>0.2182539779690416</v>
       </c>
       <c r="D10">
-        <v>0.3086779535307755</v>
+        <v>0.2970109918786932</v>
       </c>
       <c r="E10">
-        <v>2.206338678249793</v>
+        <v>0.07394992555325253</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007802311771524385</v>
+        <v>0.4819357875129384</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001839565074968519</v>
       </c>
       <c r="I10">
-        <v>0.3957920056713391</v>
+        <v>0.002284963277757512</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.38205923621382</v>
       </c>
       <c r="K10">
-        <v>1.878075286619435</v>
+        <v>0.4327244785462696</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.308887513149671</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2225059882364917</v>
       </c>
       <c r="O10">
-        <v>2.501550615771691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2999721681769856</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.769250197697318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.701328438695612</v>
+        <v>1.477640430636882</v>
       </c>
       <c r="C11">
-        <v>0.3828560735875897</v>
+        <v>0.2506605383928786</v>
       </c>
       <c r="D11">
-        <v>0.3323773295634567</v>
+        <v>0.3187168542648777</v>
       </c>
       <c r="E11">
-        <v>2.390170711104503</v>
+        <v>0.05533952045026425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007765430194004025</v>
+        <v>0.422578489500097</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02046366736300342</v>
       </c>
       <c r="I11">
-        <v>0.406079549570876</v>
+        <v>0.002482765110314311</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3478515807382223</v>
       </c>
       <c r="K11">
-        <v>2.016500647951403</v>
+        <v>0.3790177248305753</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.451655849149489</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1446392784794313</v>
       </c>
       <c r="O11">
-        <v>2.616789770879024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2719459393659136</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.5719951280727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.745733290445344</v>
+        <v>1.504792208107887</v>
       </c>
       <c r="C12">
-        <v>0.3928625209836696</v>
+        <v>0.2766487485061617</v>
       </c>
       <c r="D12">
-        <v>0.3414224619520212</v>
+        <v>0.3268855182771659</v>
       </c>
       <c r="E12">
-        <v>2.460839985288672</v>
+        <v>0.04700592317811725</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007751535238216108</v>
+        <v>0.3742195353817479</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05930079490708096</v>
       </c>
       <c r="I12">
-        <v>0.4102239936004608</v>
+        <v>0.002422213352339497</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3213950841805655</v>
       </c>
       <c r="K12">
-        <v>2.069176978461371</v>
+        <v>0.3403213436111763</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.530302389114439</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09012065819846526</v>
       </c>
       <c r="O12">
-        <v>2.661873895232588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2409959915871589</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.414159843612282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.736160574060705</v>
+        <v>1.487644348739479</v>
       </c>
       <c r="C13">
-        <v>0.3907043579604306</v>
+        <v>0.2997931147845918</v>
       </c>
       <c r="D13">
-        <v>0.3394711252531266</v>
+        <v>0.3249580993097538</v>
       </c>
       <c r="E13">
-        <v>2.445570180933998</v>
+        <v>0.04571910019508962</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007754524802993484</v>
+        <v>0.3288502353648823</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1153402568232451</v>
       </c>
       <c r="I13">
-        <v>0.4093199413481798</v>
+        <v>0.002534627287127833</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2979413118074135</v>
       </c>
       <c r="K13">
-        <v>2.05781997500398</v>
+        <v>0.3085605394071003</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.565037706645739</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05076987707094105</v>
       </c>
       <c r="O13">
-        <v>2.652097332585811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2061325851872162</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.268856656400331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.704977498293886</v>
+        <v>1.455295225674462</v>
       </c>
       <c r="C14">
-        <v>0.3836779331427067</v>
+        <v>0.3152974571656841</v>
       </c>
       <c r="D14">
-        <v>0.3331200034346864</v>
+        <v>0.3190355550324568</v>
       </c>
       <c r="E14">
-        <v>2.395962498197747</v>
+        <v>0.04897786783531988</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000776428569330704</v>
+        <v>0.2986432420834078</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1649436714475883</v>
       </c>
       <c r="I14">
-        <v>0.4064153837516571</v>
+        <v>0.002791971195798659</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2829336878990958</v>
       </c>
       <c r="K14">
-        <v>2.020828927866603</v>
+        <v>0.2897636875842036</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.569781872101117</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03238725618902727</v>
       </c>
       <c r="O14">
-        <v>2.620468968150817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1803825954842964</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.173342646292397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.685903683103362</v>
+        <v>1.437587846915562</v>
       </c>
       <c r="C15">
-        <v>0.379382898881687</v>
+        <v>0.3183667420106531</v>
       </c>
       <c r="D15">
-        <v>0.3292392624835685</v>
+        <v>0.3154425345358618</v>
       </c>
       <c r="E15">
-        <v>2.365719304353149</v>
+        <v>0.05025978153741839</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007770273421590947</v>
+        <v>0.2911752623418238</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1775749563866071</v>
       </c>
       <c r="I15">
-        <v>0.4046694083863329</v>
+        <v>0.003027163003297417</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2795507493992417</v>
       </c>
       <c r="K15">
-        <v>1.998205787834223</v>
+        <v>0.2858939479752838</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.561621720752669</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.02911988284559719</v>
       </c>
       <c r="O15">
-        <v>2.601288728238529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1731416318710828</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.150393864499307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.5769823439596</v>
+        <v>1.347762549407122</v>
       </c>
       <c r="C16">
-        <v>0.3548965358988596</v>
+        <v>0.3046482617597803</v>
       </c>
       <c r="D16">
-        <v>0.307138497118288</v>
+        <v>0.2950277228040648</v>
       </c>
       <c r="E16">
-        <v>2.1944628850746</v>
+        <v>0.04914586461176551</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007804732739349101</v>
+        <v>0.292600243843701</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1655113476812033</v>
       </c>
       <c r="I16">
-        <v>0.3951531455020216</v>
+        <v>0.003749093436078432</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2836800608515873</v>
       </c>
       <c r="K16">
-        <v>1.869062410001078</v>
+        <v>0.2931610848367843</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.466544513033341</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02935713520368211</v>
       </c>
       <c r="O16">
-        <v>2.494213106438991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1632792613627743</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.161863071863522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.510476599592948</v>
+        <v>1.296145156492116</v>
       </c>
       <c r="C17">
-        <v>0.3399786999178787</v>
+        <v>0.2857660801148398</v>
       </c>
       <c r="D17">
-        <v>0.2936958440281785</v>
+        <v>0.2825961201734799</v>
       </c>
       <c r="E17">
-        <v>2.091095815135617</v>
+        <v>0.04587834967643101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007826012833664623</v>
+        <v>0.3094816848958217</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1281252462044904</v>
       </c>
       <c r="I17">
-        <v>0.3897320029033295</v>
+        <v>0.00421223065940346</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2947457156083857</v>
       </c>
       <c r="K17">
-        <v>1.79024741988863</v>
+        <v>0.3084099953161932</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.391412414242495</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03772676874068992</v>
       </c>
       <c r="O17">
-        <v>2.430932809945915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1690776357753982</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.220697536109881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.472329052402273</v>
+        <v>1.272214074153368</v>
       </c>
       <c r="C18">
-        <v>0.3314329402082308</v>
+        <v>0.2611067533704841</v>
       </c>
       <c r="D18">
-        <v>0.2860034065422923</v>
+        <v>0.2755283507143247</v>
       </c>
       <c r="E18">
-        <v>2.032211057324034</v>
+        <v>0.04414449688761457</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007838308022768722</v>
+        <v>0.3440563492491577</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0753587518344645</v>
       </c>
       <c r="I18">
-        <v>0.3867595367296559</v>
+        <v>0.004122135712091968</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.314213237933302</v>
       </c>
       <c r="K18">
-        <v>1.74505201252461</v>
+        <v>0.3349264836229651</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.324674698567748</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06188160476224525</v>
       </c>
       <c r="O18">
-        <v>2.395372358343309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1899186050608783</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.334686099283417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.459429981383863</v>
+        <v>1.270245604191729</v>
       </c>
       <c r="C19">
-        <v>0.3285451105597588</v>
+        <v>0.2379272047091234</v>
       </c>
       <c r="D19">
-        <v>0.2834053745342118</v>
+        <v>0.273235280550395</v>
       </c>
       <c r="E19">
-        <v>2.012366672075345</v>
+        <v>0.04932637320959543</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007842480834860289</v>
+        <v>0.3904764532708853</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02974367205675321</v>
       </c>
       <c r="I19">
-        <v>0.3857774353299561</v>
+        <v>0.004133735236822922</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3388913233614304</v>
       </c>
       <c r="K19">
-        <v>1.729771868712845</v>
+        <v>0.3697696410742815</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.272864914559591</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1090511748404666</v>
       </c>
       <c r="O19">
-        <v>2.383471533123213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2227740626195391</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.48474469170516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.517545171447239</v>
+        <v>1.333529255817382</v>
       </c>
       <c r="C20">
-        <v>0.3415630721588911</v>
+        <v>0.2151519217270845</v>
       </c>
       <c r="D20">
-        <v>0.2951226913982339</v>
+        <v>0.2843950092470919</v>
       </c>
       <c r="E20">
-        <v>2.102039348930617</v>
+        <v>0.07260333633726113</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007823741877991682</v>
+        <v>0.4723138126404649</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002175044613913713</v>
       </c>
       <c r="I20">
-        <v>0.3902938553416675</v>
+        <v>0.003447026322117352</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3792581383530376</v>
       </c>
       <c r="K20">
-        <v>1.798622938330766</v>
+        <v>0.4292055893500191</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.259512704000798</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2171573871495696</v>
       </c>
       <c r="O20">
-        <v>2.437581460442374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2886136511870063</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.742867954400907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.714131090240215</v>
+        <v>1.501391858147059</v>
       </c>
       <c r="C21">
-        <v>0.3857398972857027</v>
+        <v>0.2266345925323066</v>
       </c>
       <c r="D21">
-        <v>0.3349834828185152</v>
+        <v>0.3213845977582253</v>
       </c>
       <c r="E21">
-        <v>2.410503352547522</v>
+        <v>0.07946965220860491</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007761416851838832</v>
+        <v>0.4984146590680751</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0009313964140744702</v>
       </c>
       <c r="I21">
-        <v>0.407261568012828</v>
+        <v>0.0024556794759798</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3863987944145322</v>
       </c>
       <c r="K21">
-        <v>2.031686727085429</v>
+        <v>0.4368873537222342</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.405509962645084</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.250699275294366</v>
       </c>
       <c r="O21">
-        <v>2.629718459800955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3292163088399391</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.813497254588867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.843778165608171</v>
+        <v>1.611688489387944</v>
       </c>
       <c r="C22">
-        <v>0.4149985301750689</v>
+        <v>0.2345212602731266</v>
       </c>
       <c r="D22">
-        <v>0.361451972408787</v>
+        <v>0.3457556366815027</v>
       </c>
       <c r="E22">
-        <v>2.618354029527069</v>
+        <v>0.08263528562821598</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007721092764353275</v>
+        <v>0.5140602086408705</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0004649990570302354</v>
       </c>
       <c r="I22">
-        <v>0.4198139855301264</v>
+        <v>0.001752722012070329</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3903872547100349</v>
       </c>
       <c r="K22">
-        <v>2.18553325070144</v>
+        <v>0.4407990416989804</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.502462044778326</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2665981007024385</v>
       </c>
       <c r="O22">
-        <v>2.763799811651268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3530444921144209</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.855234931453367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.774464262919366</v>
+        <v>1.554041175471667</v>
       </c>
       <c r="C23">
-        <v>0.3993431989533462</v>
+        <v>0.2295375519246505</v>
       </c>
       <c r="D23">
-        <v>0.3472836791317064</v>
+        <v>0.332734260079377</v>
       </c>
       <c r="E23">
-        <v>2.506786051552254</v>
+        <v>0.08112367369303364</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007742581455753016</v>
+        <v>0.507531148040286</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0006900808824252813</v>
       </c>
       <c r="I23">
-        <v>0.4129720804660693</v>
+        <v>0.001785194744132745</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3891903753191457</v>
       </c>
       <c r="K23">
-        <v>2.103266983774603</v>
+        <v>0.4402957698549876</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.449390462634113</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2578807649390455</v>
       </c>
       <c r="O23">
-        <v>2.691404864522667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3403945711740022</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.838771115188763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.514349200088645</v>
+        <v>1.333709362246367</v>
       </c>
       <c r="C24">
-        <v>0.340846682670275</v>
+        <v>0.2120373769766033</v>
       </c>
       <c r="D24">
-        <v>0.2944775025186885</v>
+        <v>0.2838215699909341</v>
       </c>
       <c r="E24">
-        <v>2.097090100479207</v>
+        <v>0.0750866018819103</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000782476838555148</v>
+        <v>0.4808760633263915</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001986482775670262</v>
       </c>
       <c r="I24">
-        <v>0.3900393944127032</v>
+        <v>0.002916854977968342</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3837573348427696</v>
       </c>
       <c r="K24">
-        <v>1.794836007214371</v>
+        <v>0.4363965743236946</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.250849571709779</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2253370707519196</v>
       </c>
       <c r="O24">
-        <v>2.434573061992808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.292427127999396</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.770434365536573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.237671570859504</v>
+        <v>1.095890083682235</v>
       </c>
       <c r="C25">
-        <v>0.2790357737625584</v>
+        <v>0.193306616432686</v>
       </c>
       <c r="D25">
-        <v>0.2389933216601889</v>
+        <v>0.2318032443825757</v>
       </c>
       <c r="E25">
-        <v>1.676426979197217</v>
+        <v>0.06851583297530084</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007915578902516377</v>
+        <v>0.4543551908663304</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004247870893272221</v>
       </c>
       <c r="I25">
-        <v>0.3707940465034767</v>
+        <v>0.005154649258410693</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3792502101175401</v>
       </c>
       <c r="K25">
-        <v>1.467236089369152</v>
+        <v>0.433496037910146</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.037076706086282</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1903908257824156</v>
       </c>
       <c r="O25">
-        <v>2.189042349793766</v>
+        <v>0.2407625911152529</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.704257002709824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9233232653373022</v>
+        <v>0.9107661417417603</v>
       </c>
       <c r="C2">
-        <v>0.1777940514026213</v>
+        <v>0.1695968545684607</v>
       </c>
       <c r="D2">
-        <v>0.1940072345393418</v>
+        <v>0.1943680620900352</v>
       </c>
       <c r="E2">
-        <v>0.0640470618961384</v>
+        <v>0.06052871948095806</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4411312174439743</v>
+        <v>0.3845031031229666</v>
       </c>
       <c r="H2">
-        <v>0.006555675604264372</v>
+        <v>0.005348363595161387</v>
       </c>
       <c r="I2">
-        <v>0.00679873676719378</v>
+        <v>0.005036309089468283</v>
       </c>
       <c r="J2">
-        <v>0.3793917514112337</v>
+        <v>0.3781730107355372</v>
       </c>
       <c r="K2">
-        <v>0.4363996526304312</v>
+        <v>0.3893311390331426</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1776418405321323</v>
       </c>
       <c r="M2">
-        <v>0.8766341402491662</v>
+        <v>0.1180023395021994</v>
       </c>
       <c r="N2">
-        <v>0.1642066038286174</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.202896067052496</v>
+        <v>0.8999873902836555</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1730618590458946</v>
       </c>
       <c r="Q2">
-        <v>1.676113887067601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2022017933381264</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.533322579886885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8043765736154</v>
+        <v>0.7955960242653646</v>
       </c>
       <c r="C3">
-        <v>0.1683053671720103</v>
+        <v>0.1569236792936124</v>
       </c>
       <c r="D3">
-        <v>0.1686284903001081</v>
+        <v>0.1689773905228265</v>
       </c>
       <c r="E3">
-        <v>0.0607213322177973</v>
+        <v>0.05778882179134115</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4304649423298343</v>
+        <v>0.3793264739171676</v>
       </c>
       <c r="H3">
-        <v>0.008512500296008155</v>
+        <v>0.006995751541150869</v>
       </c>
       <c r="I3">
-        <v>0.008766563112086789</v>
+        <v>0.006511105704907649</v>
       </c>
       <c r="J3">
-        <v>0.3787371398521913</v>
+        <v>0.37653574136489</v>
       </c>
       <c r="K3">
-        <v>0.4366583842151002</v>
+        <v>0.3924429404955738</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1823536742854266</v>
       </c>
       <c r="M3">
-        <v>0.769626789184386</v>
+        <v>0.1171830961182661</v>
       </c>
       <c r="N3">
-        <v>0.1467991754380762</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1771184413590063</v>
+        <v>0.7888346091720422</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1551954760705669</v>
       </c>
       <c r="Q3">
-        <v>1.651840853146197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1765924231356379</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.521467769543122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7311100542241604</v>
+        <v>0.7245608763594475</v>
       </c>
       <c r="C4">
-        <v>0.1624922299194793</v>
+        <v>0.1492352854730328</v>
       </c>
       <c r="D4">
-        <v>0.1531446424905596</v>
+        <v>0.1534807612574411</v>
       </c>
       <c r="E4">
-        <v>0.0586460446845134</v>
+        <v>0.05607059273719983</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4242671493950922</v>
+        <v>0.376508875695734</v>
       </c>
       <c r="H4">
-        <v>0.009891771281617216</v>
+        <v>0.008160430349923045</v>
       </c>
       <c r="I4">
-        <v>0.01018935867024728</v>
+        <v>0.007597451939755473</v>
       </c>
       <c r="J4">
-        <v>0.3785836448624593</v>
+        <v>0.3755992875374474</v>
       </c>
       <c r="K4">
-        <v>0.4370218654498572</v>
+        <v>0.3944859577071576</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1853182669425237</v>
       </c>
       <c r="M4">
-        <v>0.7039017163575778</v>
+        <v>0.1172165570889732</v>
       </c>
       <c r="N4">
-        <v>0.1361254336202649</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1612712231865743</v>
+        <v>0.7206071416201638</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1442538085198635</v>
       </c>
       <c r="Q4">
-        <v>1.638194244798285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1608391305158996</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.515129755994892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7008971669542632</v>
+        <v>0.695244559913732</v>
       </c>
       <c r="C5">
-        <v>0.1603001202063368</v>
+        <v>0.1463286934627206</v>
       </c>
       <c r="D5">
-        <v>0.1468560904301626</v>
+        <v>0.1471858327525268</v>
       </c>
       <c r="E5">
-        <v>0.05774602293697129</v>
+        <v>0.05531864033147293</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4213404511806615</v>
+        <v>0.3750028669365193</v>
       </c>
       <c r="H5">
-        <v>0.0105009067279001</v>
+        <v>0.008675682908415361</v>
       </c>
       <c r="I5">
-        <v>0.01090543343419137</v>
+        <v>0.008179933438559495</v>
       </c>
       <c r="J5">
-        <v>0.3783280890898126</v>
+        <v>0.3749893147033774</v>
       </c>
       <c r="K5">
-        <v>0.4367938384940828</v>
+        <v>0.3949667920550404</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.186352908819277</v>
       </c>
       <c r="M5">
-        <v>0.6774241952440292</v>
+        <v>0.1172675414129873</v>
       </c>
       <c r="N5">
-        <v>0.1318327184880985</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1547909379882029</v>
+        <v>0.6931177027268376</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1398544278893752</v>
       </c>
       <c r="Q5">
-        <v>1.631376686723797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1543953552388011</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.511325158898686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6955155045605466</v>
+        <v>0.6900208735216609</v>
       </c>
       <c r="C6">
-        <v>0.1601524234376726</v>
+        <v>0.1461004478081094</v>
       </c>
       <c r="D6">
-        <v>0.145812171074823</v>
+        <v>0.1461408294779858</v>
       </c>
       <c r="E6">
-        <v>0.05754014493000348</v>
+        <v>0.05514122654362197</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4202661061182056</v>
+        <v>0.37421537942258</v>
       </c>
       <c r="H6">
-        <v>0.01060943823395107</v>
+        <v>0.008767694818386546</v>
       </c>
       <c r="I6">
-        <v>0.01113756243103392</v>
+        <v>0.008405194229370139</v>
       </c>
       <c r="J6">
-        <v>0.3779790147433104</v>
+        <v>0.3745895234002106</v>
       </c>
       <c r="K6">
-        <v>0.4362385412488052</v>
+        <v>0.3945801887012834</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1862929735654504</v>
       </c>
       <c r="M6">
-        <v>0.6734148683858763</v>
+        <v>0.1171650318242392</v>
       </c>
       <c r="N6">
-        <v>0.1311867048784947</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1536942078296448</v>
+        <v>0.6889366186604775</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.139189604210344</v>
       </c>
       <c r="Q6">
-        <v>1.628354985449079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1533050809176721</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.508937438103388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7297131473889067</v>
+        <v>0.7233288570114667</v>
       </c>
       <c r="C7">
-        <v>0.163055774311907</v>
+        <v>0.1497505564317052</v>
       </c>
       <c r="D7">
-        <v>0.15305700317532</v>
+        <v>0.1533911333289524</v>
       </c>
       <c r="E7">
-        <v>0.05848142492263975</v>
+        <v>0.05592440116967801</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4226082471431454</v>
+        <v>0.377257304845493</v>
       </c>
       <c r="H7">
-        <v>0.009912237208036512</v>
+        <v>0.008183395772153282</v>
       </c>
       <c r="I7">
-        <v>0.01048301359281112</v>
+        <v>0.007936624008443971</v>
       </c>
       <c r="J7">
-        <v>0.3777346151278635</v>
+        <v>0.3710124909470025</v>
       </c>
       <c r="K7">
-        <v>0.4355998936264243</v>
+        <v>0.3927162145890541</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1844710896684276</v>
       </c>
       <c r="M7">
-        <v>0.7046080774757115</v>
+        <v>0.1167431352677433</v>
       </c>
       <c r="N7">
-        <v>0.1362502824469445</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1611281085555021</v>
+        <v>0.7210839482804232</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1443340459782902</v>
       </c>
       <c r="Q7">
-        <v>1.632898293088928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1607045006050782</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.507464822737745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8810326589294846</v>
+        <v>0.8702514854759045</v>
       </c>
       <c r="C8">
-        <v>0.1753190849502104</v>
+        <v>0.1656817715615801</v>
       </c>
       <c r="D8">
-        <v>0.1852301944351638</v>
+        <v>0.1855806829957061</v>
       </c>
       <c r="E8">
-        <v>0.06270630182610937</v>
+        <v>0.05942711058518135</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4352456058167533</v>
+        <v>0.3882239062913229</v>
       </c>
       <c r="H8">
-        <v>0.007205660387601925</v>
+        <v>0.005908898274696261</v>
       </c>
       <c r="I8">
-        <v>0.007772805147509665</v>
+        <v>0.005915873201948862</v>
       </c>
       <c r="J8">
-        <v>0.3780051477558217</v>
+        <v>0.3643380411657517</v>
       </c>
       <c r="K8">
-        <v>0.4345842563812568</v>
+        <v>0.3870919424696524</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1777906917829277</v>
       </c>
       <c r="M8">
-        <v>0.8411622381823349</v>
+        <v>0.1166005290771164</v>
       </c>
       <c r="N8">
-        <v>0.158445707974245</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1939364527270087</v>
+        <v>0.8623822806756891</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1670049902475839</v>
       </c>
       <c r="Q8">
-        <v>1.66063458843449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1933254784003715</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.513569738178177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.177866745384847</v>
+        <v>1.157220759069503</v>
       </c>
       <c r="C9">
-        <v>0.1984766194848504</v>
+        <v>0.1969889051887321</v>
       </c>
       <c r="D9">
-        <v>0.2492467103412253</v>
+        <v>0.2495842176907814</v>
       </c>
       <c r="E9">
-        <v>0.07100856339415884</v>
+        <v>0.06624805077469809</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4658785003471451</v>
+        <v>0.4071599293893584</v>
       </c>
       <c r="H9">
-        <v>0.003366469779667147</v>
+        <v>0.002693848543927624</v>
       </c>
       <c r="I9">
-        <v>0.003814030382626399</v>
+        <v>0.002934791582798191</v>
       </c>
       <c r="J9">
-        <v>0.3820771302178656</v>
+        <v>0.3665152294826868</v>
       </c>
       <c r="K9">
-        <v>0.4367925601358387</v>
+        <v>0.3812102011794849</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1671206181977851</v>
       </c>
       <c r="M9">
-        <v>1.107098007387833</v>
+        <v>0.1217842195898236</v>
       </c>
       <c r="N9">
-        <v>0.201807780261376</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2582652962153809</v>
+        <v>1.138686733082636</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2115535419155776</v>
       </c>
       <c r="Q9">
-        <v>1.734782905741184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2571775098742677</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.552083203691254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.393296201727907</v>
+        <v>1.3661950039548</v>
       </c>
       <c r="C10">
-        <v>0.2182539779690416</v>
+        <v>0.222545083692296</v>
       </c>
       <c r="D10">
-        <v>0.2970109918786932</v>
+        <v>0.2972800958085031</v>
       </c>
       <c r="E10">
-        <v>0.07394992555325253</v>
+        <v>0.06841959300439981</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4819357875129384</v>
+        <v>0.4295632201881574</v>
       </c>
       <c r="H10">
-        <v>0.001839565074968519</v>
+        <v>0.001479883736476673</v>
       </c>
       <c r="I10">
-        <v>0.002284963277757512</v>
+        <v>0.00195281797649649</v>
       </c>
       <c r="J10">
-        <v>0.38205923621382</v>
+        <v>0.3452551803776771</v>
       </c>
       <c r="K10">
-        <v>0.4327244785462696</v>
+        <v>0.3696347732300929</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1568417865144554</v>
       </c>
       <c r="M10">
-        <v>1.308887513149671</v>
+        <v>0.1250126808658294</v>
       </c>
       <c r="N10">
-        <v>0.2225059882364917</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2999721681769856</v>
+        <v>1.346536574825848</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2326365099762455</v>
       </c>
       <c r="Q10">
-        <v>1.769250197697318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2985470923912672</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.54782154287733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.477640430636882</v>
+        <v>1.453668832160417</v>
       </c>
       <c r="C11">
-        <v>0.2506605383928786</v>
+        <v>0.2569167212215007</v>
       </c>
       <c r="D11">
-        <v>0.3187168542648777</v>
+        <v>0.3189393338090554</v>
       </c>
       <c r="E11">
-        <v>0.05533952045026425</v>
+        <v>0.05173473479364787</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.422578489500097</v>
+        <v>0.4050622188959068</v>
       </c>
       <c r="H11">
-        <v>0.02046366736300342</v>
+        <v>0.0201401742387759</v>
       </c>
       <c r="I11">
-        <v>0.002482765110314311</v>
+        <v>0.002384006177084785</v>
       </c>
       <c r="J11">
-        <v>0.3478515807382223</v>
+        <v>0.2847949682550706</v>
       </c>
       <c r="K11">
-        <v>0.3790177248305753</v>
+        <v>0.3209555670441269</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1377762672112972</v>
       </c>
       <c r="M11">
-        <v>1.451655849149489</v>
+        <v>0.1086946106096995</v>
       </c>
       <c r="N11">
-        <v>0.1446392784794313</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2719459393659136</v>
+        <v>1.485524000851484</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1521092304434504</v>
       </c>
       <c r="Q11">
-        <v>1.5719951280727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2707536964018757</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.348715787693379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.504792208107887</v>
+        <v>1.484495988504051</v>
       </c>
       <c r="C12">
-        <v>0.2766487485061617</v>
+        <v>0.2825892178068443</v>
       </c>
       <c r="D12">
-        <v>0.3268855182771659</v>
+        <v>0.3270962355536682</v>
       </c>
       <c r="E12">
-        <v>0.04700592317811725</v>
+        <v>0.04478418626233827</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3742195353817479</v>
+        <v>0.3737648629689545</v>
       </c>
       <c r="H12">
-        <v>0.05930079490708096</v>
+        <v>0.05897223651783179</v>
       </c>
       <c r="I12">
-        <v>0.002422213352339497</v>
+        <v>0.002346718406365689</v>
       </c>
       <c r="J12">
-        <v>0.3213950841805655</v>
+        <v>0.2562369779964193</v>
       </c>
       <c r="K12">
-        <v>0.3403213436111763</v>
+        <v>0.2893168094337675</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1267411373749052</v>
       </c>
       <c r="M12">
-        <v>1.530302389114439</v>
+        <v>0.0964601264910101</v>
       </c>
       <c r="N12">
-        <v>0.09012065819846526</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2409959915871589</v>
+        <v>1.560063831850755</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09572476796805063</v>
       </c>
       <c r="Q12">
-        <v>1.414159843612282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2400368842753302</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.207004031540862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.487644348739479</v>
+        <v>1.471326665103106</v>
       </c>
       <c r="C13">
-        <v>0.2997931147845918</v>
+        <v>0.3044810908700697</v>
       </c>
       <c r="D13">
-        <v>0.3249580993097538</v>
+        <v>0.3251945290444809</v>
       </c>
       <c r="E13">
-        <v>0.04571910019508962</v>
+        <v>0.04460304972671203</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3288502353648823</v>
+        <v>0.3288099131431679</v>
       </c>
       <c r="H13">
-        <v>0.1153402568232451</v>
+        <v>0.1149650756262588</v>
       </c>
       <c r="I13">
-        <v>0.002534627287127833</v>
+        <v>0.002399186987463331</v>
       </c>
       <c r="J13">
-        <v>0.2979413118074135</v>
+        <v>0.2466857710855486</v>
       </c>
       <c r="K13">
-        <v>0.3085605394071003</v>
+        <v>0.266807355260914</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1197182569661539</v>
       </c>
       <c r="M13">
-        <v>1.565037706645739</v>
+        <v>0.08641657805103264</v>
       </c>
       <c r="N13">
-        <v>0.05076987707094105</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2061325851872162</v>
+        <v>1.590837735383843</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05499648146971481</v>
       </c>
       <c r="Q13">
-        <v>1.268856656400331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2053997721052738</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.095621980520662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.455295225674462</v>
+        <v>1.441899361860322</v>
       </c>
       <c r="C14">
-        <v>0.3152974571656841</v>
+        <v>0.31866567827349</v>
       </c>
       <c r="D14">
-        <v>0.3190355550324568</v>
+        <v>0.3193052687392708</v>
       </c>
       <c r="E14">
-        <v>0.04897786783531988</v>
+        <v>0.04849335124303966</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2986432420834078</v>
+        <v>0.2929638520156175</v>
       </c>
       <c r="H14">
-        <v>0.1649436714475883</v>
+        <v>0.164514601456446</v>
       </c>
       <c r="I14">
-        <v>0.002791971195798659</v>
+        <v>0.002588101349826566</v>
       </c>
       <c r="J14">
-        <v>0.2829336878990958</v>
+        <v>0.246202421097081</v>
       </c>
       <c r="K14">
-        <v>0.2897636875842036</v>
+        <v>0.2548512210621183</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1162693963101677</v>
       </c>
       <c r="M14">
-        <v>1.569781872101117</v>
+        <v>0.08048610204281914</v>
       </c>
       <c r="N14">
-        <v>0.03238725618902727</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1803825954842964</v>
+        <v>1.592848846289229</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03586924711512651</v>
       </c>
       <c r="Q14">
-        <v>1.173342646292397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1797992867062348</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.029539132749434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.437587846915562</v>
+        <v>1.424977975287305</v>
       </c>
       <c r="C15">
-        <v>0.3183667420106531</v>
+        <v>0.3213635654271059</v>
       </c>
       <c r="D15">
-        <v>0.3154425345358618</v>
+        <v>0.3157274418761631</v>
       </c>
       <c r="E15">
-        <v>0.05025978153741839</v>
+        <v>0.04992425705285797</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2911752623418238</v>
+        <v>0.2818998341786809</v>
       </c>
       <c r="H15">
-        <v>0.1775749563866071</v>
+        <v>0.1771187365135489</v>
       </c>
       <c r="I15">
-        <v>0.003027163003297417</v>
+        <v>0.002807191198368919</v>
       </c>
       <c r="J15">
-        <v>0.2795507493992417</v>
+        <v>0.2485819167398375</v>
       </c>
       <c r="K15">
-        <v>0.2858939479752838</v>
+        <v>0.252956250791053</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.115827837449598</v>
       </c>
       <c r="M15">
-        <v>1.561621720752669</v>
+        <v>0.07927700077419431</v>
       </c>
       <c r="N15">
-        <v>0.02911988284559719</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1731416318710828</v>
+        <v>1.584065161499694</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03246808727314665</v>
       </c>
       <c r="Q15">
-        <v>1.150393864499307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1725954598893047</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.016557060629125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.347762549407122</v>
+        <v>1.335874033623071</v>
       </c>
       <c r="C16">
-        <v>0.3046482617597803</v>
+        <v>0.3071790776196792</v>
       </c>
       <c r="D16">
-        <v>0.2950277228040648</v>
+        <v>0.2953726715836638</v>
       </c>
       <c r="E16">
-        <v>0.04914586461176551</v>
+        <v>0.04891100057214359</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.292600243843701</v>
+        <v>0.2651449041725016</v>
       </c>
       <c r="H16">
-        <v>0.1655113476812033</v>
+        <v>0.1649059287634884</v>
       </c>
       <c r="I16">
-        <v>0.003749093436078432</v>
+        <v>0.003337924084903854</v>
       </c>
       <c r="J16">
-        <v>0.2836800608515873</v>
+        <v>0.2741377646073175</v>
       </c>
       <c r="K16">
-        <v>0.2931610848367843</v>
+        <v>0.2631591214622659</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1199909626405447</v>
       </c>
       <c r="M16">
-        <v>1.466544513033341</v>
+        <v>0.0816479601819271</v>
       </c>
       <c r="N16">
-        <v>0.02935713520368211</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1632792613627743</v>
+        <v>1.489303354446349</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03300041847486312</v>
       </c>
       <c r="Q16">
-        <v>1.161863071863522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1627571164841726</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.05253523619902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.296145156492116</v>
+        <v>1.283477764830735</v>
       </c>
       <c r="C17">
-        <v>0.2857660801148398</v>
+        <v>0.2883153193532735</v>
       </c>
       <c r="D17">
-        <v>0.2825961201734799</v>
+        <v>0.2829624897328102</v>
       </c>
       <c r="E17">
-        <v>0.04587834967643101</v>
+        <v>0.0453713967026621</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3094816848958217</v>
+        <v>0.272654948495358</v>
       </c>
       <c r="H17">
-        <v>0.1281252462044904</v>
+        <v>0.1274321446072832</v>
       </c>
       <c r="I17">
-        <v>0.00421223065940346</v>
+        <v>0.003690227802925605</v>
       </c>
       <c r="J17">
-        <v>0.2947457156083857</v>
+        <v>0.2941027952736448</v>
       </c>
       <c r="K17">
-        <v>0.3084099953161932</v>
+        <v>0.2772879584009615</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1254270879723745</v>
       </c>
       <c r="M17">
-        <v>1.391412414242495</v>
+        <v>0.08626936579767808</v>
       </c>
       <c r="N17">
-        <v>0.03772676874068992</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1690776357753982</v>
+        <v>1.415486298772294</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0419852549111468</v>
       </c>
       <c r="Q17">
-        <v>1.220697536109881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1685079538644452</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.113846979370024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.272214074153368</v>
+        <v>1.257125057406682</v>
       </c>
       <c r="C18">
-        <v>0.2611067533704841</v>
+        <v>0.2640603187231676</v>
       </c>
       <c r="D18">
-        <v>0.2755283507143247</v>
+        <v>0.2758955562485568</v>
       </c>
       <c r="E18">
-        <v>0.04414449688761457</v>
+        <v>0.04289081992360932</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3440563492491577</v>
+        <v>0.2990172371880035</v>
       </c>
       <c r="H18">
-        <v>0.0753587518344645</v>
+        <v>0.07464423107186491</v>
       </c>
       <c r="I18">
-        <v>0.004122135712091968</v>
+        <v>0.003513370317412168</v>
       </c>
       <c r="J18">
-        <v>0.314213237933302</v>
+        <v>0.3154868324362212</v>
       </c>
       <c r="K18">
-        <v>0.3349264836229651</v>
+        <v>0.2992349378855614</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1337065074530184</v>
       </c>
       <c r="M18">
-        <v>1.324674698567748</v>
+        <v>0.09421894034847078</v>
       </c>
       <c r="N18">
-        <v>0.06188160476224525</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1899186050608783</v>
+        <v>1.351459239813181</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06726518984879704</v>
       </c>
       <c r="Q18">
-        <v>1.334686099283417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1892177494482077</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.21508337091359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.270245604191729</v>
+        <v>1.251569594517349</v>
       </c>
       <c r="C19">
-        <v>0.2379272047091234</v>
+        <v>0.2412917050668284</v>
       </c>
       <c r="D19">
-        <v>0.273235280550395</v>
+        <v>0.2735897240924317</v>
       </c>
       <c r="E19">
-        <v>0.04932637320959543</v>
+        <v>0.04678932085582455</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3904764532708853</v>
+        <v>0.336869825851565</v>
       </c>
       <c r="H19">
-        <v>0.02974367205675321</v>
+        <v>0.02908079303139033</v>
       </c>
       <c r="I19">
-        <v>0.004133735236822922</v>
+        <v>0.003581851357680854</v>
       </c>
       <c r="J19">
-        <v>0.3388913233614304</v>
+        <v>0.3377489527320208</v>
       </c>
       <c r="K19">
-        <v>0.3697696410742815</v>
+        <v>0.3268209363772563</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1439678205909267</v>
       </c>
       <c r="M19">
-        <v>1.272864914559591</v>
+        <v>0.1046260146767199</v>
       </c>
       <c r="N19">
-        <v>0.1090511748404666</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2227740626195391</v>
+        <v>1.30327865625685</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1161060862120493</v>
       </c>
       <c r="Q19">
-        <v>1.48474469170516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2218670693242792</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.341644693530938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.333529255817382</v>
+        <v>1.307839981170417</v>
       </c>
       <c r="C20">
-        <v>0.2151519217270845</v>
+        <v>0.2188949633635247</v>
       </c>
       <c r="D20">
-        <v>0.2843950092470919</v>
+        <v>0.2846979995925096</v>
       </c>
       <c r="E20">
-        <v>0.07260333633726113</v>
+        <v>0.0673027583414143</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4723138126404649</v>
+        <v>0.4104495452145898</v>
       </c>
       <c r="H20">
-        <v>0.002175044613913713</v>
+        <v>0.001734194776488174</v>
       </c>
       <c r="I20">
-        <v>0.003447026322117352</v>
+        <v>0.00313299519914878</v>
       </c>
       <c r="J20">
-        <v>0.3792581383530376</v>
+        <v>0.360501899401612</v>
       </c>
       <c r="K20">
-        <v>0.4292055893500191</v>
+        <v>0.3704465336421698</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1586804301557798</v>
       </c>
       <c r="M20">
-        <v>1.259512704000798</v>
+        <v>0.1231858912532005</v>
       </c>
       <c r="N20">
-        <v>0.2171573871495696</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2886136511870063</v>
+        <v>1.296278334100577</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2273019930587452</v>
       </c>
       <c r="Q20">
-        <v>1.742867954400907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2872668573506161</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.543156838030654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.501391858147059</v>
+        <v>1.472152567979492</v>
       </c>
       <c r="C21">
-        <v>0.2266345925323066</v>
+        <v>0.2317714257485193</v>
       </c>
       <c r="D21">
-        <v>0.3213845977582253</v>
+        <v>0.3215510505491181</v>
       </c>
       <c r="E21">
-        <v>0.07946965220860491</v>
+        <v>0.07330029325457943</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4984146590680751</v>
+        <v>0.4858102018294375</v>
       </c>
       <c r="H21">
-        <v>0.0009313964140744702</v>
+        <v>0.0007221384746692872</v>
       </c>
       <c r="I21">
-        <v>0.0024556794759798</v>
+        <v>0.002497441897054031</v>
       </c>
       <c r="J21">
-        <v>0.3863987944145322</v>
+        <v>0.2940789771983958</v>
       </c>
       <c r="K21">
-        <v>0.4368873537222342</v>
+        <v>0.3612894337827903</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1510501276577809</v>
       </c>
       <c r="M21">
-        <v>1.405509962645084</v>
+        <v>0.1259710017433591</v>
       </c>
       <c r="N21">
-        <v>0.250699275294366</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3292163088399391</v>
+        <v>1.443706888810368</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2609034379023427</v>
       </c>
       <c r="Q21">
-        <v>1.813497254588867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3276402905664142</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.525799071535147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.611688489387944</v>
+        <v>1.580510616994445</v>
       </c>
       <c r="C22">
-        <v>0.2345212602731266</v>
+        <v>0.2403458032207624</v>
       </c>
       <c r="D22">
-        <v>0.3457556366815027</v>
+        <v>0.3458144816619182</v>
       </c>
       <c r="E22">
-        <v>0.08263528562821598</v>
+        <v>0.07606248002138472</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5140602086408705</v>
+        <v>0.541834816128798</v>
       </c>
       <c r="H22">
-        <v>0.0004649990570302354</v>
+        <v>0.0003558973714177238</v>
       </c>
       <c r="I22">
-        <v>0.001752722012070329</v>
+        <v>0.001894891038215718</v>
       </c>
       <c r="J22">
-        <v>0.3903872547100349</v>
+        <v>0.2565137365570962</v>
       </c>
       <c r="K22">
-        <v>0.4407990416989804</v>
+        <v>0.3538810029136314</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1457834081607849</v>
       </c>
       <c r="M22">
-        <v>1.502462044778326</v>
+        <v>0.1274414191465745</v>
       </c>
       <c r="N22">
-        <v>0.2665981007024385</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3530444921144209</v>
+        <v>1.541017524523369</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2766283281765851</v>
       </c>
       <c r="Q22">
-        <v>1.855234931453367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3513317666236304</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.507067645910467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.554041175471667</v>
+        <v>1.523509566981744</v>
       </c>
       <c r="C23">
-        <v>0.2295375519246505</v>
+        <v>0.2352106225333728</v>
       </c>
       <c r="D23">
-        <v>0.332734260079377</v>
+        <v>0.3328594821425952</v>
       </c>
       <c r="E23">
-        <v>0.08112367369303364</v>
+        <v>0.07472029583446904</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.507531148040286</v>
+        <v>0.5064197058179047</v>
       </c>
       <c r="H23">
-        <v>0.0006900808824252813</v>
+        <v>0.0005300862301589326</v>
       </c>
       <c r="I23">
-        <v>0.001785194744132745</v>
+        <v>0.001815853703085679</v>
       </c>
       <c r="J23">
-        <v>0.3891903753191457</v>
+        <v>0.2822064656413588</v>
       </c>
       <c r="K23">
-        <v>0.4402957698549876</v>
+        <v>0.360325197713486</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1493907412141713</v>
       </c>
       <c r="M23">
-        <v>1.449390462634113</v>
+        <v>0.1276938775303407</v>
       </c>
       <c r="N23">
-        <v>0.2578807649390455</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3403945711740022</v>
+        <v>1.488319040968918</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2681089981770981</v>
       </c>
       <c r="Q23">
-        <v>1.838771115188763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3387373842773727</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.529066791005874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.333709362246367</v>
+        <v>1.307607196447634</v>
       </c>
       <c r="C24">
-        <v>0.2120373769766033</v>
+        <v>0.2153410311285313</v>
       </c>
       <c r="D24">
-        <v>0.2838215699909341</v>
+        <v>0.2841229115580575</v>
       </c>
       <c r="E24">
-        <v>0.0750866018819103</v>
+        <v>0.06955399789307748</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4808760633263915</v>
+        <v>0.4174049908672686</v>
       </c>
       <c r="H24">
-        <v>0.001986482775670262</v>
+        <v>0.001554299557170236</v>
       </c>
       <c r="I24">
-        <v>0.002916854977968342</v>
+        <v>0.002507262022366064</v>
       </c>
       <c r="J24">
-        <v>0.3837573348427696</v>
+        <v>0.3649339046203082</v>
       </c>
       <c r="K24">
-        <v>0.4363965743236946</v>
+        <v>0.3763664616599272</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1608912358284762</v>
       </c>
       <c r="M24">
-        <v>1.250849571709779</v>
+        <v>0.125406232431061</v>
       </c>
       <c r="N24">
-        <v>0.2253370707519196</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.292427127999396</v>
+        <v>1.28793894764766</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2357284167824076</v>
       </c>
       <c r="Q24">
-        <v>1.770434365536573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2910513395781322</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.56718874988519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.095890083682235</v>
+        <v>1.077881311709945</v>
       </c>
       <c r="C25">
-        <v>0.193306616432686</v>
+        <v>0.189996411135894</v>
       </c>
       <c r="D25">
-        <v>0.2318032443825757</v>
+        <v>0.2321552923844621</v>
       </c>
       <c r="E25">
-        <v>0.06851583297530084</v>
+        <v>0.06417284623917396</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4543551908663304</v>
+        <v>0.3958006531246383</v>
       </c>
       <c r="H25">
-        <v>0.004247870893272221</v>
+        <v>0.00342419887112444</v>
       </c>
       <c r="I25">
-        <v>0.005154649258410693</v>
+        <v>0.004118976836881671</v>
       </c>
       <c r="J25">
-        <v>0.3792502101175401</v>
+        <v>0.3696165971454946</v>
       </c>
       <c r="K25">
-        <v>0.433496037910146</v>
+        <v>0.3811866813541691</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1693522487042536</v>
       </c>
       <c r="M25">
-        <v>1.037076706086282</v>
+        <v>0.119392790939191</v>
       </c>
       <c r="N25">
-        <v>0.1903908257824156</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2407625911152529</v>
+        <v>1.066113247221637</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1998564294981335</v>
       </c>
       <c r="Q25">
-        <v>1.704257002709824</v>
+        <v>0.2398080002396306</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.536267167967821</v>
       </c>
     </row>
   </sheetData>
